--- a/Schnittstellen Beschreibung/Views from DELTEK.xlsx
+++ b/Schnittstellen Beschreibung/Views from DELTEK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013BCF99-AAAD-47AC-857F-B4FF4780A250}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F636BF4-3BDE-4FCD-AD57-D4329E8EBAD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="409">
   <si>
     <t>Ressource_Firmencode</t>
   </si>
@@ -291,102 +291,6 @@
     <t>Main_project_no.</t>
   </si>
   <si>
-    <t>Main_project_name</t>
-  </si>
-  <si>
-    <t>Main_project_company_shortname</t>
-  </si>
-  <si>
-    <t>Main_project_contract_date</t>
-  </si>
-  <si>
-    <t>Main_project_GMB_responsible_no.</t>
-  </si>
-  <si>
-    <t>Main_project_GMB_responsible_name</t>
-  </si>
-  <si>
-    <t>Main_project_start</t>
-  </si>
-  <si>
-    <t>Main_project_end</t>
-  </si>
-  <si>
-    <t>Main_project_leader_company</t>
-  </si>
-  <si>
-    <t>Main_project_leader_group</t>
-  </si>
-  <si>
-    <t>Main_project_planned_end</t>
-  </si>
-  <si>
-    <t>Main_project_customer_no.</t>
-  </si>
-  <si>
-    <t>Main_project_country</t>
-  </si>
-  <si>
-    <t>Main_project_project_type_IN-EX</t>
-  </si>
-  <si>
-    <t>Main_project_project_type_F2</t>
-  </si>
-  <si>
-    <t>Main_project_project_manager_no.</t>
-  </si>
-  <si>
-    <t>Main_project_project_manager_name</t>
-  </si>
-  <si>
-    <t>Main_project_project_controller_no.</t>
-  </si>
-  <si>
-    <t>Main_project_project_controller_name</t>
-  </si>
-  <si>
-    <t>Main_project_contracting_company</t>
-  </si>
-  <si>
-    <t>Main_project_project_status</t>
-  </si>
-  <si>
-    <t>Main_project_original_contract_value</t>
-  </si>
-  <si>
-    <t>Main_project_original_margin</t>
-  </si>
-  <si>
-    <t>Main_project_main_business_area_code</t>
-  </si>
-  <si>
-    <t>Main_project_main_business_area_name</t>
-  </si>
-  <si>
-    <t>Main_project_Hfprojects</t>
-  </si>
-  <si>
-    <t>Main_project_clearing_code</t>
-  </si>
-  <si>
-    <t>Main_project_clearing_name</t>
-  </si>
-  <si>
-    <t>Main_project_contracting_company_external</t>
-  </si>
-  <si>
-    <t>Main_project_project_status_IFRS</t>
-  </si>
-  <si>
-    <t>Main_project_finish_Status</t>
-  </si>
-  <si>
-    <t>Main_project_half_finished_from</t>
-  </si>
-  <si>
-    <t>Main_project_finished_from</t>
-  </si>
-  <si>
     <t>Unterprojektnr</t>
   </si>
   <si>
@@ -1156,13 +1060,205 @@
   </si>
   <si>
     <t>[SELECTEDOPTION1]</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>[PREVIOUSEMPLOYEENUMBER]</t>
+  </si>
+  <si>
+    <t>es gibt kein Quellsystem</t>
+  </si>
+  <si>
+    <t>wird im EDWH kalkuliert</t>
+  </si>
+  <si>
+    <t>[COMPANYNUMBER]</t>
+  </si>
+  <si>
+    <t>[JOBNUMBER]</t>
+  </si>
+  <si>
+    <t>[dbo].[EXJOBHEADER]</t>
+  </si>
+  <si>
+    <t>jobname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remark1 </t>
+  </si>
+  <si>
+    <t>date1</t>
+  </si>
+  <si>
+    <t>employeenumber9</t>
+  </si>
+  <si>
+    <t>employee9namevar</t>
+  </si>
+  <si>
+    <t>StartingDate</t>
+  </si>
+  <si>
+    <t>date2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationName </t>
+  </si>
+  <si>
+    <t>ExpectedEndingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerNumber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specification3Name </t>
+  </si>
+  <si>
+    <t>InternalJob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectManagerNumber </t>
+  </si>
+  <si>
+    <t>ProjectManagerNameVar</t>
+  </si>
+  <si>
+    <t>EmployeeNumber7</t>
+  </si>
+  <si>
+    <t>Employee7NameVar</t>
+  </si>
+  <si>
+    <t>AccountManagerNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountManagerNameVar </t>
+  </si>
+  <si>
+    <t>SalesPersonNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SalesPerson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNumber1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee1NameVar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNumber2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee2NameVar </t>
+  </si>
+  <si>
+    <t>EmployeeNumber3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee3NameVar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNumber4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee4NameVar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNumber5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee5NameVar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNumber6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee6NameVar </t>
+  </si>
+  <si>
+    <t>EmployeeNumber9</t>
+  </si>
+  <si>
+    <t>Employee9NameVar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNumber8 </t>
+  </si>
+  <si>
+    <t>Employee8NameVar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNumber10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee10NameVar </t>
+  </si>
+  <si>
+    <t>companynumber (von HauptProjekt  - wenn HauptProjekt nummer ist leer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectName </t>
+  </si>
+  <si>
+    <t>ProjectDescriptionVar</t>
+  </si>
+  <si>
+    <t>Specification1Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specification1DescriptionVar </t>
+  </si>
+  <si>
+    <t>[JOBNAME]</t>
+  </si>
+  <si>
+    <t>[REMARK]</t>
+  </si>
+  <si>
+    <t>[DATE1]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER9]</t>
+  </si>
+  <si>
+    <t>dies ist Schlüssel zum Ressource</t>
+  </si>
+  <si>
+    <t>[STARTINGDATE]</t>
+  </si>
+  <si>
+    <t>[DATE2]</t>
+  </si>
+  <si>
+    <t>[LOCATIONNAME]</t>
+  </si>
+  <si>
+    <t>[EXPECTEDENDINGDATE]</t>
+  </si>
+  <si>
+    <t>[CUSTOMERNUMBER]</t>
+  </si>
+  <si>
+    <t>[SPECIFICATION3NAME]</t>
+  </si>
+  <si>
+    <t>[INTERNALJOB]</t>
+  </si>
+  <si>
+    <t>[PROJECTMANAGERNUMBER]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER7]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,8 +1287,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,6 +1314,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1224,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1243,6 +1352,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1558,11 +1669,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8907BE-0D2C-4915-B2FB-BE481DAA8218}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,11 +1685,12 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
@@ -1587,21 +1699,24 @@
         <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1609,192 +1724,210 @@
       <c r="E2" s="7"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="G7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="G8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="G9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>338</v>
+      </c>
+      <c r="G12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>212</v>
+      <c r="C13" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>212</v>
+      <c r="C14" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>212</v>
+      <c r="C15" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>212</v>
+      <c r="C16" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1802,300 +1935,405 @@
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>86</v>
+      <c r="C19" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
-        <v>87</v>
+      <c r="C20" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>88</v>
+      <c r="C21" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>88</v>
+      <c r="C22" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>89</v>
+      <c r="C23" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>351</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>90</v>
+      <c r="C24" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>91</v>
+      <c r="C25" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" t="s">
+        <v>398</v>
+      </c>
+      <c r="H25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>92</v>
+      <c r="C26" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
-        <v>93</v>
+      <c r="C27" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>351</v>
+      </c>
+      <c r="G27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
-        <v>94</v>
+      <c r="C28" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>95</v>
+      <c r="C29" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
-        <v>96</v>
+      <c r="C30" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>97</v>
+      <c r="C31" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
-        <v>98</v>
+      <c r="C32" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
-        <v>99</v>
+      <c r="C33" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>351</v>
+      </c>
+      <c r="G33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
-        <v>100</v>
+      <c r="C34" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C36" t="s">
-        <v>102</v>
+      <c r="C36" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36" t="s">
+        <v>407</v>
+      </c>
+      <c r="H36" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C37" t="s">
-        <v>103</v>
+      <c r="C37" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="C38" t="s">
-        <v>104</v>
+      <c r="C38" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="s">
-        <v>105</v>
+      <c r="C39" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
-        <v>212</v>
+      <c r="C40" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="C41" t="s">
-        <v>212</v>
+      <c r="C41" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
-        <v>212</v>
+      <c r="C42" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C43" t="s">
-        <v>212</v>
+      <c r="C43" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="C44" t="s">
-        <v>212</v>
+      <c r="C44" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="C45" t="s">
-        <v>212</v>
+      <c r="C45" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C46" t="s">
-        <v>212</v>
+      <c r="C46" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="C47" t="s">
-        <v>212</v>
+      <c r="C47" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="C48" t="s">
-        <v>212</v>
+      <c r="C48" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -2103,11 +2341,11 @@
       <c r="B49" t="s">
         <v>56</v>
       </c>
-      <c r="C49" t="s">
-        <v>212</v>
+      <c r="C49" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="E49" s="7"/>
     </row>
@@ -2115,11 +2353,11 @@
       <c r="B50" t="s">
         <v>57</v>
       </c>
-      <c r="C50" t="s">
-        <v>212</v>
+      <c r="C50" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="E50" s="7"/>
     </row>
@@ -2127,11 +2365,11 @@
       <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="C51" t="s">
-        <v>212</v>
+      <c r="C51" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="E51" s="7"/>
     </row>
@@ -2139,11 +2377,11 @@
       <c r="B52" t="s">
         <v>59</v>
       </c>
-      <c r="C52" t="s">
-        <v>212</v>
+      <c r="C52" s="8" t="s">
+        <v>380</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -2151,11 +2389,11 @@
       <c r="B53" t="s">
         <v>60</v>
       </c>
-      <c r="C53" t="s">
-        <v>212</v>
+      <c r="C53" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="D53" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E53" s="7"/>
     </row>
@@ -2163,11 +2401,11 @@
       <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="C54" t="s">
-        <v>212</v>
+      <c r="C54" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="E54" s="7"/>
     </row>
@@ -2175,11 +2413,11 @@
       <c r="B55" t="s">
         <v>62</v>
       </c>
-      <c r="C55" t="s">
-        <v>212</v>
+      <c r="C55" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="E55" s="7"/>
     </row>
@@ -2187,11 +2425,11 @@
       <c r="B56" t="s">
         <v>63</v>
       </c>
-      <c r="C56" t="s">
-        <v>212</v>
+      <c r="C56" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="E56" s="7"/>
     </row>
@@ -2199,11 +2437,11 @@
       <c r="B57" t="s">
         <v>64</v>
       </c>
-      <c r="C57" t="s">
-        <v>212</v>
+      <c r="C57" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="E57" s="7"/>
     </row>
@@ -2211,11 +2449,11 @@
       <c r="B58" t="s">
         <v>65</v>
       </c>
-      <c r="C58" t="s">
-        <v>212</v>
+      <c r="C58" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="E58" s="7"/>
     </row>
@@ -2223,11 +2461,11 @@
       <c r="B59" t="s">
         <v>66</v>
       </c>
-      <c r="C59" t="s">
-        <v>212</v>
+      <c r="C59" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="E59" s="7"/>
     </row>
@@ -2235,11 +2473,11 @@
       <c r="B60" t="s">
         <v>67</v>
       </c>
-      <c r="C60" t="s">
-        <v>212</v>
+      <c r="C60" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="E60" s="7"/>
     </row>
@@ -2247,11 +2485,11 @@
       <c r="B61" t="s">
         <v>68</v>
       </c>
-      <c r="C61" t="s">
-        <v>212</v>
+      <c r="C61" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="E61" s="7"/>
     </row>
@@ -2259,8 +2497,8 @@
       <c r="B62" t="s">
         <v>69</v>
       </c>
-      <c r="C62" t="s">
-        <v>106</v>
+      <c r="C62" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="E62" s="7"/>
     </row>
@@ -2268,8 +2506,8 @@
       <c r="B63" t="s">
         <v>70</v>
       </c>
-      <c r="C63" t="s">
-        <v>107</v>
+      <c r="C63" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="E63" s="7"/>
     </row>
@@ -2277,11 +2515,11 @@
       <c r="B64" t="s">
         <v>71</v>
       </c>
-      <c r="C64" t="s">
-        <v>212</v>
+      <c r="C64" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="D64" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="E64" s="7"/>
     </row>
@@ -2289,26 +2527,20 @@
       <c r="B65" t="s">
         <v>72</v>
       </c>
-      <c r="C65" t="s">
-        <v>108</v>
-      </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>73</v>
       </c>
-      <c r="C66" t="s">
-        <v>109</v>
-      </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>74</v>
       </c>
-      <c r="C67" t="s">
-        <v>110</v>
+      <c r="C67" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="E67" s="7"/>
     </row>
@@ -2316,8 +2548,8 @@
       <c r="B68" t="s">
         <v>75</v>
       </c>
-      <c r="C68" t="s">
-        <v>111</v>
+      <c r="C68" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="E68" s="7"/>
     </row>
@@ -2325,8 +2557,8 @@
       <c r="B69" t="s">
         <v>76</v>
       </c>
-      <c r="C69" t="s">
-        <v>111</v>
+      <c r="C69" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="E69" s="7"/>
     </row>
@@ -2334,90 +2566,60 @@
       <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>78</v>
       </c>
-      <c r="C71" t="s">
-        <v>113</v>
-      </c>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>79</v>
       </c>
-      <c r="C72" t="s">
-        <v>114</v>
-      </c>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" t="s">
-        <v>114</v>
-      </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>81</v>
       </c>
-      <c r="C74" t="s">
-        <v>115</v>
-      </c>
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>82</v>
       </c>
-      <c r="C75" t="s">
-        <v>116</v>
-      </c>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>83</v>
       </c>
-      <c r="C76" t="s">
-        <v>117</v>
-      </c>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="C77" t="s">
-        <v>118</v>
-      </c>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>85</v>
       </c>
-      <c r="C78" t="s">
-        <v>119</v>
-      </c>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>13</v>
       </c>
-      <c r="C79" t="s">
-        <v>212</v>
-      </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
@@ -2428,7 +2630,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2456,403 +2658,403 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D95" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D97" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D100" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D102" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D103" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D104" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D105" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D106" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="E107" s="7"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D108" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D109" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D111" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D112" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D113" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D114" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D115" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D116" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D118" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="E119" s="7"/>
     </row>
@@ -2861,28 +3063,28 @@
         <v>71</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D120" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E122" s="7"/>
     </row>
@@ -2897,7 +3099,7 @@
     </row>
     <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2907,46 +3109,46 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C128" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C129" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C130" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E130" s="7"/>
     </row>
@@ -2955,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -2964,25 +3166,25 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C132" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D132" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D133" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E133" s="7"/>
     </row>
@@ -2991,7 +3193,7 @@
     </row>
     <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3001,37 +3203,37 @@
     </row>
     <row r="136" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="D136" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="D137" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E138" s="7"/>
     </row>
@@ -3040,7 +3242,7 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -3052,7 +3254,7 @@
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3062,118 +3264,118 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C143" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="E144" s="7"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C145" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C146" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D147" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D148" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C151" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C152" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="C153" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D153" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="E153" s="7"/>
     </row>
@@ -3182,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D154" t="s">
         <v>13</v>
@@ -3194,7 +3396,7 @@
     </row>
     <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3204,28 +3406,28 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C157" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="C158" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C159" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="E159" s="7"/>
     </row>
@@ -3234,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
@@ -3246,7 +3448,7 @@
     </row>
     <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3259,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D163" t="s">
         <v>13</v>
@@ -3268,49 +3470,49 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C164" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D164" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C165" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D165" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C166" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D166" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="E167" s="7"/>
     </row>
@@ -3319,7 +3521,7 @@
     </row>
     <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3329,97 +3531,97 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C170" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E170" s="7"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C171" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D171" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E171" s="7"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C172" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D172" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="E172" s="7"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C173" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D173" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E173" s="7"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C174" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="E174" s="7"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C175" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D175" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="C176" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D176" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="E176" s="7"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C177" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="E177" s="7"/>
     </row>
@@ -3428,10 +3630,10 @@
         <v>27</v>
       </c>
       <c r="C178" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E178" s="7"/>
     </row>
@@ -3440,424 +3642,424 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D179" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="E179" s="7"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C180" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D180" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C181" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D181" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="E181" s="7"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C182" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D182" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="E182" s="7"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="C183" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D183" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="E183" s="7"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="C184" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D184" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="E184" s="7"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C185" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D185" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="E185" s="7"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D186" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="E186" s="7"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D187" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="E187" s="7"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="C188" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D188" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="E188" s="7"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D189" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="E189" s="7"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C190" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="E190" s="7"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="C191" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E191" s="7"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="C192" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D192" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="E192" s="7"/>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="C193" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D193" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="E193" s="7"/>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D194" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="E194" s="7"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C195" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D195" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="E195" s="7"/>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C196" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D196" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="E196" s="7"/>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C197" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D197" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="E197" s="7"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C198" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D198" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="E198" s="7"/>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D199" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="E199" s="7"/>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C200" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D200" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="E200" s="7"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C201" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D201" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E201" s="7"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="C202" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D202" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C203" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D203" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="E203" s="7"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="C204" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D204" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="E204" s="7"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C205" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D205" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="E205" s="7"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C206" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D206" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="E206" s="7"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C207" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D207" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="E207" s="7"/>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C208" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D208" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="E208" s="7"/>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C209" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D209" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="E209" s="7"/>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C210" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D210" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="E210" s="7"/>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D211" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="E211" s="7"/>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C212" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D212" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E212" s="7"/>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="C213" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D213" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="E213" s="7"/>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="C214" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D214" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="E214" s="7"/>
     </row>
@@ -3866,7 +4068,7 @@
         <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D215" t="s">
         <v>13</v>

--- a/Schnittstellen Beschreibung/Views from DELTEK.xlsx
+++ b/Schnittstellen Beschreibung/Views from DELTEK.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F636BF4-3BDE-4FCD-AD57-D4329E8EBAD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557A59C0-5FA5-4DD8-AC15-494FB58A33E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Deltek Interfaces" sheetId="1" r:id="rId1"/>
+    <sheet name="SourceSystem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="438">
   <si>
     <t>Ressource_Firmencode</t>
   </si>
@@ -1041,9 +1042,6 @@
     <t>[EMPLOYEENUMBER]</t>
   </si>
   <si>
-    <t>[prod].[dbo].[EXEMPLOYEE]</t>
-  </si>
-  <si>
     <t>[DATEEMPLOYED]</t>
   </si>
   <si>
@@ -1252,13 +1250,103 @@
   </si>
   <si>
     <t>[EMPLOYEENUMBER7]</t>
+  </si>
+  <si>
+    <t>POPUPITEM</t>
+  </si>
+  <si>
+    <t>[POPUPITEMNUMBER]</t>
+  </si>
+  <si>
+    <t>[POPUPTYPENAME]</t>
+  </si>
+  <si>
+    <t>[NAME]</t>
+  </si>
+  <si>
+    <t>[STRING1]</t>
+  </si>
+  <si>
+    <t>[STRING2]</t>
+  </si>
+  <si>
+    <t>[dbo].[EXEMPLOYEE]</t>
+  </si>
+  <si>
+    <t>[dbo].[EXPOPUPITEM]</t>
+  </si>
+  <si>
+    <t>[TRANSACTIONTIMESTAMP]</t>
+  </si>
+  <si>
+    <t>[ACCOUNTMANAGERNUMBER]</t>
+  </si>
+  <si>
+    <t>[SALESPERSONNUMBER]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER1]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER2]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER3]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER4]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER5]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER6]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER8]</t>
+  </si>
+  <si>
+    <t>[EMPLOYEENUMBER10]</t>
+  </si>
+  <si>
+    <t>da erfolgt noch eine Berechnungslogik</t>
+  </si>
+  <si>
+    <t>[PROJECTNAME]</t>
+  </si>
+  <si>
+    <t>[SPECIFICATION1NAME]</t>
+  </si>
+  <si>
+    <t>[dbo].[EXTASKLISTHEADER]</t>
+  </si>
+  <si>
+    <t>dbo.[EXENTITY]</t>
+  </si>
+  <si>
+    <t>HauptProject_ExecutingCompany</t>
+  </si>
+  <si>
+    <t>HauptProject_LeadDepartment</t>
+  </si>
+  <si>
+    <t>HauptProjekt_CountryOfExecution</t>
+  </si>
+  <si>
+    <t>[LOCATIONNAME] (on Subjob)</t>
+  </si>
+  <si>
+    <t>[SETTLINGCOMPANY] or [COMPANY] (on Subjob)</t>
+  </si>
+  <si>
+    <t>[COUNTRY] (on main JOB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,8 +1382,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1320,6 +1414,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1333,7 +1433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1354,6 +1454,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1369,6 +1473,2486 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752EDDAD-180D-447C-A575-93D193F7DCB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="714375"/>
+          <a:ext cx="1562100" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>[dbo].[EXEMPLOYEE]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rechteck 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6FB218-E790-4216-B2E3-0728D5B0C2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076824" y="704849"/>
+          <a:ext cx="1724025" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>[dbo].[EXJOBHEADER]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D172FAB-F3A5-4569-9D0D-620B16D14BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563099" y="2695575"/>
+          <a:ext cx="1828801" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>[dbo].[EXTASKLISTHEADER]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7D5B5C-F011-417B-8207-EDB4EAC60A2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10477500" y="1590674"/>
+          <a:ext cx="33337" cy="1104901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Textfeld 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FFC1CA-1D30-4F10-830A-CCA50A13D613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="2085975"/>
+          <a:ext cx="895350" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>JobNumber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rechteck 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722DDDCD-3728-4C27-90AD-2C93EFB28920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="6286500"/>
+          <a:ext cx="1828801" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>[dbo].[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXTASKLISTLINE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D31E09B-9F4C-4373-A475-C89352602532}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="3571875"/>
+          <a:ext cx="38101" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Textfeld 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC38807A-6AAA-42EB-A6C9-9EFFF7B4FCC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5000625"/>
+          <a:ext cx="895350" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Tasklist</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080A46D3-61C6-4200-946D-CF4F8EFF16DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="1143000"/>
+          <a:ext cx="2114549" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Textfeld 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D102BEE-55FF-45BF-826A-2968DF07D107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486149" y="914400"/>
+          <a:ext cx="1323975" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>EmployeeNumber9,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EmployeeNumber7,....</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rechteck 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DE36A9-1F6A-4A82-B1F6-83372331EFFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="8934450"/>
+          <a:ext cx="1828801" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>[dbo].[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXACTIVITY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>407625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Grafik 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2B561E-E361-42B1-A619-A0804B11C9E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="276225"/>
+          <a:ext cx="13237800" cy="1341559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>569639</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Grafik 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BC71D4-BE2A-4398-8852-D7741DF95B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="2667000"/>
+          <a:ext cx="14885714" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Grafik 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6442C3F-2B35-46C3-AFEE-51F0699B31F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591926" y="6162675"/>
+          <a:ext cx="4743450" cy="2290712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>17612</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>158560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Grafik 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C486567A-4752-4992-9286-B6B9E03EB4B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219949" y="8582025"/>
+          <a:ext cx="8799663" cy="2435035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Gerade Verbindung mit Pfeil 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A399E4D3-EFE9-43A3-A22D-2180F6A25A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943601" y="7162800"/>
+          <a:ext cx="0" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Textfeld 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AF6B6-797D-49C2-A143-DF3DACBDE508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="7867649"/>
+          <a:ext cx="1181100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>ActivityNumber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rechteck 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59131574-9C06-4643-81A6-69729B548B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="3171825"/>
+          <a:ext cx="1828801" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[dbo].[EXFINANCEENTRY]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Gerade Verbindung mit Pfeil 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A4F6DF-FEB3-4233-8C19-994460DE2564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2171701" y="1571625"/>
+          <a:ext cx="9524" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Textfeld 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7EF563-C8C1-42DF-B803-AD6E3C543B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134099" y="2047875"/>
+          <a:ext cx="1285875" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>EmployeeNumber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Gerade Verbindung mit Pfeil 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3589C3D7-E830-487A-9039-C07F1AE1350F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3086101" y="1590674"/>
+          <a:ext cx="2852736" cy="2019301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Textfeld 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71676BAF-A623-4751-A638-AA1FFAC50943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867151" y="2533649"/>
+          <a:ext cx="895350" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>JobNumber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Gerade Verbindung mit Pfeil 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9E1918-CE4F-4676-9797-A9DC95498D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086101" y="3609975"/>
+          <a:ext cx="1943099" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Textfeld 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B0506D-B5A6-41F4-AD6C-128050E330FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="4981575"/>
+          <a:ext cx="895350" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>TaskName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Gerade Verbindung mit Pfeil 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20C604B-EFC1-462C-9DE9-4AC736A537E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171701" y="4048125"/>
+          <a:ext cx="2857499" cy="5324475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Textfeld 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C59F28-D078-42C8-99F8-71CF0646EFD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019424" y="6305550"/>
+          <a:ext cx="1076325" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>ActivityNumber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561146</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326762</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Grafik 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B39C6D-0944-4FD3-9BAE-AA6D52D2F71F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561146" y="4091609"/>
+          <a:ext cx="7385616" cy="2054086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167852</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Grafik 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58114D89-0762-488D-83BE-3B47BA63E2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="109818"/>
+          <a:ext cx="8549852" cy="398644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>389283</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rechteck 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C69405-C5EF-415F-9D82-FC8CEC9C37FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1954696" y="844826"/>
+          <a:ext cx="2244587" cy="786848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[dbo].[EXCOMPANYINFORMATION]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28990</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Gerade Verbindung mit Pfeil 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD53D90-8C05-4FDC-AA38-C927D43C1E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="1"/>
+          <a:endCxn id="65" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3076990" y="1631674"/>
+          <a:ext cx="2752310" cy="1978301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>349940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>62120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Textfeld 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4FD9AD-E9C9-4CDE-BAC1-C97EBE4A1556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3636065" y="2252870"/>
+          <a:ext cx="1285875" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>CompanyNumber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>527537</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70338</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rechteck 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2D0788-F3FC-4550-917D-029FFB7291EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337537" y="7055826"/>
+          <a:ext cx="1828801" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>[dbo].[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXJOBACTIVITY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>679938</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Gerade Verbindung mit Pfeil 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B18EEA-A0E7-4CEA-9577-BE3B7B9F056A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="74" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5251938" y="1590674"/>
+          <a:ext cx="5258899" cy="5465152"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109903</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>188400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Grafik 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8543F72F-D5F2-4CE5-8704-2FD8AEE1222A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="7924538"/>
+          <a:ext cx="7444153" cy="645862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rechteck 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C05C3C0-CCC3-4EFF-8935-FB1B890679BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="4572000"/>
+          <a:ext cx="1828801" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>[dbo].[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXENTITY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Gerade Verbindung mit Pfeil 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0144D157-B868-4796-8178-D29660F7C3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="1143000"/>
+          <a:ext cx="4772026" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Gerade Verbindung mit Pfeil 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDCD7A0-A974-446D-BB8D-8C1E53D91B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10510837" y="1590674"/>
+          <a:ext cx="1795464" cy="2981326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Textfeld 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED30DE2-9002-40B8-96F3-72F15BF37834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="4048125"/>
+          <a:ext cx="895350" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>EntityName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Grafik 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF153FE6-296A-4397-AD02-5FF6321185FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239749" y="3762375"/>
+          <a:ext cx="3057525" cy="2262789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1669,11 +4253,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8907BE-0D2C-4915-B2FB-BE481DAA8218}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +4295,7 @@
         <v>334</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1733,10 +4317,10 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1748,7 +4332,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="G4" t="s">
         <v>337</v>
@@ -1763,10 +4347,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" t="s">
         <v>338</v>
-      </c>
-      <c r="G5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1778,10 +4362,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="G6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,10 +4377,10 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="G7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1808,10 +4392,10 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="G8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1823,10 +4407,10 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="G9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1838,10 +4422,10 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="G10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,7 +4437,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1865,10 +4449,10 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="G12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1907,7 +4491,7 @@
       </c>
       <c r="E15" s="7"/>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1944,10 +4528,10 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1959,10 +4543,10 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1970,14 +4554,14 @@
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,14 +4569,14 @@
         <v>29</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2000,14 +4584,14 @@
         <v>30</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,14 +4599,14 @@
         <v>31</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2030,17 +4614,17 @@
         <v>32</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G25" t="s">
+        <v>397</v>
+      </c>
+      <c r="H25" t="s">
         <v>398</v>
-      </c>
-      <c r="H25" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2048,7 +4632,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E26" s="7"/>
     </row>
@@ -2057,14 +4641,14 @@
         <v>34</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2072,14 +4656,14 @@
         <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2091,10 +4675,10 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2102,14 +4686,14 @@
         <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2117,14 +4701,14 @@
         <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2132,14 +4716,14 @@
         <v>39</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -2147,14 +4731,14 @@
         <v>40</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -2162,14 +4746,14 @@
         <v>41</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -2183,17 +4767,17 @@
         <v>43</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -2201,14 +4785,11 @@
         <v>44</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" t="s">
-        <v>351</v>
-      </c>
-      <c r="G37" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -2216,16 +4797,22 @@
         <v>45</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E38" s="7"/>
+      <c r="F38" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E39" s="7"/>
     </row>
@@ -2234,19 +4821,25 @@
         <v>47</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D40" t="s">
         <v>235</v>
       </c>
       <c r="E40" s="7"/>
+      <c r="F40" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D41" t="s">
         <v>236</v>
@@ -2258,19 +4851,25 @@
         <v>49</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" t="s">
         <v>237</v>
       </c>
       <c r="E42" s="7"/>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D43" t="s">
         <v>238</v>
@@ -2282,19 +4881,25 @@
         <v>51</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D44" t="s">
         <v>239</v>
       </c>
       <c r="E44" s="7"/>
+      <c r="F44" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D45" t="s">
         <v>240</v>
@@ -2306,19 +4911,25 @@
         <v>53</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D46" t="s">
         <v>241</v>
       </c>
       <c r="E46" s="7"/>
+      <c r="F46" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D47" t="s">
         <v>242</v>
@@ -2330,1131 +4941,1213 @@
         <v>55</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D48" t="s">
         <v>243</v>
       </c>
       <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D49" t="s">
         <v>244</v>
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D50" t="s">
         <v>245</v>
       </c>
       <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D51" t="s">
         <v>246</v>
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D52" t="s">
         <v>247</v>
       </c>
       <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D53" t="s">
         <v>248</v>
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D54" t="s">
         <v>249</v>
       </c>
       <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>350</v>
+      </c>
+      <c r="G54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D55" t="s">
         <v>250</v>
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D56" t="s">
         <v>251</v>
       </c>
       <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>350</v>
+      </c>
+      <c r="G56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D57" t="s">
         <v>252</v>
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D58" t="s">
         <v>253</v>
       </c>
       <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>350</v>
+      </c>
+      <c r="G58" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D59" t="s">
         <v>254</v>
       </c>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D60" t="s">
         <v>255</v>
       </c>
       <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>350</v>
+      </c>
+      <c r="G60" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D61" t="s">
         <v>256</v>
       </c>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>350</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>350</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="H63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D64" t="s">
         <v>257</v>
       </c>
       <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>350</v>
+      </c>
+      <c r="G67" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>77</v>
       </c>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>78</v>
       </c>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>79</v>
       </c>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>80</v>
       </c>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>81</v>
       </c>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>82</v>
       </c>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>83</v>
       </c>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>432</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" t="s">
+        <v>350</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>433</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" t="s">
+        <v>350</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>434</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="G80" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>85</v>
       </c>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" t="s">
-        <v>86</v>
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
       </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" t="s">
-        <v>87</v>
-      </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="s">
-        <v>126</v>
-      </c>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
       <c r="E84" s="7"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>180</v>
+      </c>
+      <c r="D91" t="s">
+        <v>258</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>180</v>
+      </c>
+      <c r="D92" t="s">
+        <v>259</v>
       </c>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
-      </c>
-      <c r="D95" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
-      </c>
-      <c r="D96" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
         <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
         <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
         <v>180</v>
       </c>
       <c r="D100" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
         <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
         <v>180</v>
       </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
         <v>180</v>
       </c>
       <c r="D103" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
         <v>180</v>
       </c>
       <c r="D104" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
         <v>180</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
         <v>180</v>
       </c>
       <c r="D106" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
         <v>180</v>
       </c>
       <c r="D107" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E107" s="7"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
         <v>180</v>
       </c>
       <c r="D108" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
         <v>180</v>
       </c>
       <c r="D109" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
         <v>180</v>
       </c>
       <c r="D110" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
         <v>180</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
         <v>180</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
         <v>180</v>
       </c>
       <c r="D113" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
         <v>180</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
         <v>180</v>
       </c>
       <c r="D115" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
         <v>180</v>
       </c>
       <c r="D116" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
         <v>180</v>
       </c>
       <c r="D117" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
         <v>180</v>
       </c>
       <c r="D118" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>134</v>
+        <v>180</v>
+      </c>
+      <c r="D119" t="s">
+        <v>281</v>
       </c>
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
         <v>180</v>
       </c>
       <c r="D120" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
+        <v>180</v>
+      </c>
+      <c r="D121" t="s">
+        <v>283</v>
       </c>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="C123" t="s">
+        <v>180</v>
+      </c>
+      <c r="D123" t="s">
+        <v>257</v>
       </c>
       <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>135</v>
+      </c>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>136</v>
+      </c>
       <c r="E125" s="7"/>
-      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>138</v>
-      </c>
-      <c r="C126" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" t="s">
-        <v>145</v>
-      </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" t="s">
-        <v>145</v>
-      </c>
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
       <c r="E128" s="7"/>
+      <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E129" s="7"/>
+      <c r="F129" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C131" t="s">
-        <v>180</v>
-      </c>
-      <c r="D131" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>180</v>
-      </c>
-      <c r="D132" t="s">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" t="s">
+        <v>284</v>
+      </c>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>143</v>
       </c>
-      <c r="C133" t="s">
-        <v>180</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C136" t="s">
+        <v>180</v>
+      </c>
+      <c r="D136" t="s">
         <v>285</v>
       </c>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>151</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D139" t="s">
         <v>286</v>
       </c>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>152</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D140" t="s">
         <v>152</v>
       </c>
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>153</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D141" t="s">
         <v>153</v>
       </c>
-      <c r="E138" s="7"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" t="s">
-        <v>180</v>
-      </c>
-      <c r="D139" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>158</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>170</v>
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>180</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
       </c>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>159</v>
-      </c>
-      <c r="C143" t="s">
-        <v>171</v>
-      </c>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>160</v>
-      </c>
-      <c r="C144" t="s">
-        <v>172</v>
-      </c>
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
       <c r="E144" s="7"/>
+      <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>161</v>
-      </c>
-      <c r="C145" t="s">
-        <v>173</v>
+        <v>158</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>180</v>
-      </c>
-      <c r="D147" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C148" t="s">
-        <v>180</v>
-      </c>
-      <c r="D148" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="D150" t="s">
+        <v>287</v>
       </c>
       <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C151" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+      <c r="D151" t="s">
+        <v>288</v>
       </c>
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C152" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>180</v>
-      </c>
-      <c r="D153" t="s">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C154" t="s">
-        <v>180</v>
-      </c>
-      <c r="D154" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" t="s">
+        <v>178</v>
+      </c>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" t="s">
+        <v>180</v>
+      </c>
+      <c r="D156" t="s">
+        <v>289</v>
+      </c>
       <c r="E156" s="7"/>
-      <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
       </c>
       <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>182</v>
-      </c>
-      <c r="C158" t="s">
-        <v>184</v>
-      </c>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>183</v>
-      </c>
-      <c r="C159" t="s">
-        <v>185</v>
-      </c>
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
       <c r="E159" s="7"/>
+      <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="C160" t="s">
-        <v>180</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="E160" s="7"/>
+      <c r="F160" s="11" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" t="s">
+        <v>185</v>
+      </c>
       <c r="E162" s="7"/>
-      <c r="F162" s="1"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
@@ -3469,614 +6162,718 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>158</v>
-      </c>
-      <c r="C164" t="s">
-        <v>180</v>
-      </c>
-      <c r="D164" t="s">
-        <v>290</v>
-      </c>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>187</v>
-      </c>
-      <c r="C165" t="s">
-        <v>180</v>
-      </c>
-      <c r="D165" t="s">
-        <v>291</v>
-      </c>
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
       <c r="E165" s="7"/>
+      <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
         <v>180</v>
       </c>
       <c r="D166" t="s">
-        <v>292</v>
+        <v>13</v>
       </c>
       <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C167" t="s">
         <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>187</v>
+      </c>
+      <c r="C168" t="s">
+        <v>180</v>
+      </c>
+      <c r="D168" t="s">
+        <v>291</v>
+      </c>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>188</v>
+      </c>
+      <c r="C169" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" t="s">
+        <v>292</v>
+      </c>
       <c r="E169" s="7"/>
-      <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C170" t="s">
         <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E170" s="7"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>192</v>
-      </c>
-      <c r="C171" t="s">
-        <v>180</v>
-      </c>
-      <c r="D171" t="s">
-        <v>295</v>
-      </c>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>193</v>
-      </c>
-      <c r="C172" t="s">
-        <v>180</v>
-      </c>
-      <c r="D172" t="s">
-        <v>296</v>
-      </c>
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
       <c r="E172" s="7"/>
+      <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
       </c>
       <c r="D173" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E173" s="7"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C174" t="s">
         <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E174" s="7"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C175" t="s">
         <v>180</v>
       </c>
       <c r="D175" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C176" t="s">
         <v>180</v>
       </c>
       <c r="D176" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E176" s="7"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C177" t="s">
         <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E177" s="7"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="C178" t="s">
         <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E178" s="7"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
         <v>180</v>
       </c>
       <c r="D179" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E179" s="7"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C180" t="s">
         <v>180</v>
       </c>
       <c r="D180" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C181" t="s">
         <v>180</v>
       </c>
       <c r="D181" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E181" s="7"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
         <v>180</v>
       </c>
       <c r="D182" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E182" s="7"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C183" t="s">
         <v>180</v>
       </c>
       <c r="D183" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="E183" s="7"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
         <v>180</v>
       </c>
       <c r="D184" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E184" s="7"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C185" t="s">
         <v>180</v>
       </c>
       <c r="D185" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E185" s="7"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C186" t="s">
         <v>180</v>
       </c>
       <c r="D186" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="E186" s="7"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C187" t="s">
         <v>180</v>
       </c>
       <c r="D187" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E187" s="7"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C188" t="s">
         <v>180</v>
       </c>
       <c r="D188" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E188" s="7"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C189" t="s">
         <v>180</v>
       </c>
       <c r="D189" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E189" s="7"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C190" t="s">
-        <v>231</v>
+        <v>180</v>
+      </c>
+      <c r="D190" t="s">
+        <v>308</v>
       </c>
       <c r="E190" s="7"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C191" t="s">
-        <v>232</v>
+        <v>180</v>
+      </c>
+      <c r="D191" t="s">
+        <v>309</v>
       </c>
       <c r="E191" s="7"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C192" t="s">
         <v>180</v>
       </c>
       <c r="D192" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E192" s="7"/>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C193" t="s">
-        <v>180</v>
-      </c>
-      <c r="D193" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="E193" s="7"/>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C194" t="s">
-        <v>180</v>
-      </c>
-      <c r="D194" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="E194" s="7"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C195" t="s">
         <v>180</v>
       </c>
       <c r="D195" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E195" s="7"/>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C196" t="s">
         <v>180</v>
       </c>
       <c r="D196" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E196" s="7"/>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C197" t="s">
         <v>180</v>
       </c>
       <c r="D197" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E197" s="7"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C198" t="s">
         <v>180</v>
       </c>
       <c r="D198" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E198" s="7"/>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C199" t="s">
         <v>180</v>
       </c>
       <c r="D199" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E199" s="7"/>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C200" t="s">
         <v>180</v>
       </c>
       <c r="D200" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E200" s="7"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C201" t="s">
         <v>180</v>
       </c>
       <c r="D201" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E201" s="7"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C202" t="s">
         <v>180</v>
       </c>
       <c r="D202" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C203" t="s">
         <v>180</v>
       </c>
       <c r="D203" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E203" s="7"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C204" t="s">
         <v>180</v>
       </c>
       <c r="D204" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E204" s="7"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C205" t="s">
         <v>180</v>
       </c>
       <c r="D205" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E205" s="7"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C206" t="s">
         <v>180</v>
       </c>
       <c r="D206" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E206" s="7"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C207" t="s">
         <v>180</v>
       </c>
       <c r="D207" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E207" s="7"/>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
+        <v>221</v>
+      </c>
+      <c r="C208" t="s">
+        <v>180</v>
+      </c>
+      <c r="D208" t="s">
+        <v>324</v>
+      </c>
+      <c r="E208" s="7"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>222</v>
+      </c>
+      <c r="C209" t="s">
+        <v>180</v>
+      </c>
+      <c r="D209" t="s">
+        <v>325</v>
+      </c>
+      <c r="E209" s="7"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>223</v>
+      </c>
+      <c r="C210" t="s">
+        <v>180</v>
+      </c>
+      <c r="D210" t="s">
+        <v>326</v>
+      </c>
+      <c r="E210" s="7"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
         <v>224</v>
       </c>
-      <c r="C208" t="s">
-        <v>180</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="C211" t="s">
+        <v>180</v>
+      </c>
+      <c r="D211" t="s">
         <v>327</v>
       </c>
-      <c r="E208" s="7"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+      <c r="E211" s="7"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
         <v>225</v>
       </c>
-      <c r="C209" t="s">
-        <v>180</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="C212" t="s">
+        <v>180</v>
+      </c>
+      <c r="D212" t="s">
         <v>328</v>
       </c>
-      <c r="E209" s="7"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+      <c r="E212" s="7"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>226</v>
       </c>
-      <c r="C210" t="s">
-        <v>180</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="C213" t="s">
+        <v>180</v>
+      </c>
+      <c r="D213" t="s">
         <v>329</v>
       </c>
-      <c r="E210" s="7"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+      <c r="E213" s="7"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
         <v>227</v>
       </c>
-      <c r="C211" t="s">
-        <v>180</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="C214" t="s">
+        <v>180</v>
+      </c>
+      <c r="D214" t="s">
         <v>330</v>
       </c>
-      <c r="E211" s="7"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+      <c r="E214" s="7"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>228</v>
       </c>
-      <c r="C212" t="s">
-        <v>180</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="C215" t="s">
+        <v>180</v>
+      </c>
+      <c r="D215" t="s">
         <v>286</v>
       </c>
-      <c r="E212" s="7"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
         <v>229</v>
       </c>
-      <c r="C213" t="s">
-        <v>180</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="C216" t="s">
+        <v>180</v>
+      </c>
+      <c r="D216" t="s">
         <v>331</v>
       </c>
-      <c r="E213" s="7"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
         <v>230</v>
       </c>
-      <c r="C214" t="s">
-        <v>180</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="C217" t="s">
+        <v>180</v>
+      </c>
+      <c r="D217" t="s">
         <v>332</v>
       </c>
-      <c r="E214" s="7"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+      <c r="E217" s="7"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>13</v>
       </c>
-      <c r="C215" t="s">
-        <v>180</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="C218" t="s">
+        <v>180</v>
+      </c>
+      <c r="D218" t="s">
         <v>13</v>
       </c>
-      <c r="E215" s="7"/>
+      <c r="E218" s="7"/>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>410</v>
+      </c>
+      <c r="F221" t="s">
+        <v>415</v>
+      </c>
+      <c r="G221" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G222" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>411</v>
+      </c>
+      <c r="G223" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>412</v>
+      </c>
+      <c r="G224" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>413</v>
+      </c>
+      <c r="G225" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>416</v>
+      </c>
+      <c r="G226" t="s">
+        <v>416</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB98F-A9EC-4081-954F-D808E65AB9CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Schnittstellen Beschreibung/Views from DELTEK.xlsx
+++ b/Schnittstellen Beschreibung/Views from DELTEK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557A59C0-5FA5-4DD8-AC15-494FB58A33E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD45AA3-75D4-4EF1-AE8C-98EE4B1EB5DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Deltek Interfaces" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="442">
   <si>
     <t>Ressource_Firmencode</t>
   </si>
@@ -1252,9 +1252,6 @@
     <t>[EMPLOYEENUMBER7]</t>
   </si>
   <si>
-    <t>POPUPITEM</t>
-  </si>
-  <si>
     <t>[POPUPITEMNUMBER]</t>
   </si>
   <si>
@@ -1340,6 +1337,22 @@
   </si>
   <si>
     <t>[COUNTRY] (on main JOB)</t>
+  </si>
+  <si>
+    <t>[dbo].[EXFINANCEENTRY]</t>
+  </si>
+  <si>
+    <t>TASKNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dbo].[EXCOMPANYINFORMATION]
+</t>
+  </si>
+  <si>
+    <t>ZIPCODE</t>
+  </si>
+  <si>
+    <t>POPUPITEM (Currency, Country, …)</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,6 +1433,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1433,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1458,6 +1477,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3139,14 +3160,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>561146</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>326762</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>527616</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3170,7 +3191,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561146" y="4091609"/>
+          <a:off x="0" y="4472609"/>
           <a:ext cx="7385616" cy="2054086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3952,6 +3973,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>389283</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Gerade Verbindung mit Pfeil 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497EF8B3-39A4-4E81-A0B9-1A8BE0E1980F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4199283" y="1238250"/>
+          <a:ext cx="7192617" cy="3771900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568577</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638734</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Textfeld 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBBC475-B020-4925-8AB5-479F747669A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4378577" y="1255059"/>
+          <a:ext cx="1594157" cy="885264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>CompanyNumber</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> =&gt; EntityName (CompanyNumber + Abteilung)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4255,9 +4408,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:G14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4420,7 @@
     <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4317,7 +4470,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G3" t="s">
         <v>348</v>
@@ -4332,7 +4485,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G4" t="s">
         <v>337</v>
@@ -4347,7 +4500,7 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G5" t="s">
         <v>338</v>
@@ -4362,7 +4515,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G6" t="s">
         <v>339</v>
@@ -4377,7 +4530,7 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G7" t="s">
         <v>340</v>
@@ -4392,7 +4545,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G8" t="s">
         <v>341</v>
@@ -4407,7 +4560,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G9" t="s">
         <v>342</v>
@@ -4422,7 +4575,7 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G10" t="s">
         <v>343</v>
@@ -4449,7 +4602,7 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G12" t="s">
         <v>345</v>
@@ -4831,7 +4984,7 @@
         <v>350</v>
       </c>
       <c r="G40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4861,7 +5014,7 @@
         <v>350</v>
       </c>
       <c r="G42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -4891,7 +5044,7 @@
         <v>350</v>
       </c>
       <c r="G44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -4921,7 +5074,7 @@
         <v>350</v>
       </c>
       <c r="G46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -4951,7 +5104,7 @@
         <v>350</v>
       </c>
       <c r="G48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -4981,7 +5134,7 @@
         <v>350</v>
       </c>
       <c r="G50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -5011,7 +5164,7 @@
         <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -5041,7 +5194,7 @@
         <v>350</v>
       </c>
       <c r="G54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -5101,7 +5254,7 @@
         <v>350</v>
       </c>
       <c r="G58" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -5131,7 +5284,7 @@
         <v>350</v>
       </c>
       <c r="G60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -5173,10 +5326,10 @@
         <v>350</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -5218,7 +5371,7 @@
         <v>350</v>
       </c>
       <c r="G67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -5291,35 +5444,35 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" t="s">
         <v>350</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" t="s">
         <v>350</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E80" s="7"/>
       <c r="G80" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5341,14 +5494,14 @@
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="1"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
@@ -5828,7 +5981,7 @@
       </c>
       <c r="E129" s="7"/>
       <c r="F129" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5907,14 +6060,14 @@
       <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="1"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="12"/>
     </row>
     <row r="139" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
@@ -5977,7 +6130,7 @@
       <c r="E144" s="7"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>158</v>
       </c>
@@ -5985,8 +6138,11 @@
         <v>170</v>
       </c>
       <c r="E145" s="7"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>159</v>
       </c>
@@ -5994,8 +6150,9 @@
         <v>171</v>
       </c>
       <c r="E146" s="7"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>160</v>
       </c>
@@ -6003,8 +6160,9 @@
         <v>172</v>
       </c>
       <c r="E147" s="7"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>161</v>
       </c>
@@ -6012,8 +6170,9 @@
         <v>173</v>
       </c>
       <c r="E148" s="7"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>162</v>
       </c>
@@ -6021,8 +6180,9 @@
         <v>174</v>
       </c>
       <c r="E149" s="7"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>163</v>
       </c>
@@ -6033,8 +6193,9 @@
         <v>287</v>
       </c>
       <c r="E150" s="7"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>164</v>
       </c>
@@ -6045,8 +6206,9 @@
         <v>288</v>
       </c>
       <c r="E151" s="7"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>165</v>
       </c>
@@ -6054,8 +6216,9 @@
         <v>175</v>
       </c>
       <c r="E152" s="7"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>166</v>
       </c>
@@ -6063,8 +6226,9 @@
         <v>176</v>
       </c>
       <c r="E153" s="7"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>167</v>
       </c>
@@ -6072,8 +6236,9 @@
         <v>177</v>
       </c>
       <c r="E154" s="7"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>168</v>
       </c>
@@ -6081,8 +6246,14 @@
         <v>178</v>
       </c>
       <c r="E155" s="7"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G155" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>169</v>
       </c>
@@ -6093,8 +6264,9 @@
         <v>289</v>
       </c>
       <c r="E156" s="7"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>13</v>
       </c>
@@ -6105,11 +6277,12 @@
         <v>13</v>
       </c>
       <c r="E157" s="7"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>186</v>
       </c>
@@ -6119,7 +6292,7 @@
       <c r="E159" s="7"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>181</v>
       </c>
@@ -6128,7 +6301,7 @@
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,14 +6338,14 @@
       <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="1"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="12"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
@@ -6258,6 +6431,9 @@
         <v>294</v>
       </c>
       <c r="E173" s="7"/>
+      <c r="F173" s="11" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
@@ -6295,7 +6471,7 @@
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>194</v>
       </c>
@@ -6307,7 +6483,7 @@
       </c>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>195</v>
       </c>
@@ -6319,7 +6495,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -6331,7 +6507,7 @@
       </c>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>196</v>
       </c>
@@ -6343,7 +6519,7 @@
       </c>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>27</v>
       </c>
@@ -6355,7 +6531,7 @@
       </c>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>1</v>
       </c>
@@ -6367,7 +6543,7 @@
       </c>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>197</v>
       </c>
@@ -6378,8 +6554,11 @@
         <v>303</v>
       </c>
       <c r="E183" s="7"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -6391,7 +6570,7 @@
       </c>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>198</v>
       </c>
@@ -6403,7 +6582,7 @@
       </c>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>199</v>
       </c>
@@ -6415,7 +6594,7 @@
       </c>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>200</v>
       </c>
@@ -6427,7 +6606,7 @@
       </c>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>201</v>
       </c>
@@ -6439,7 +6618,7 @@
       </c>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>202</v>
       </c>
@@ -6451,7 +6630,7 @@
       </c>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>203</v>
       </c>
@@ -6463,7 +6642,7 @@
       </c>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>204</v>
       </c>
@@ -6475,7 +6654,7 @@
       </c>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>205</v>
       </c>
@@ -6795,7 +6974,7 @@
     </row>
     <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6805,53 +6984,53 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F221" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G221" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G222" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G223" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G224" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G225" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G226" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -6864,8 +7043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB98F-A9EC-4081-954F-D808E65AB9CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schnittstellen Beschreibung/Views from DELTEK.xlsx
+++ b/Schnittstellen Beschreibung/Views from DELTEK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD45AA3-75D4-4EF1-AE8C-98EE4B1EB5DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305CE359-7B25-4CCA-A35A-EB4DC75B725A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Deltek Interfaces" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="402">
   <si>
     <t>Ressource_Firmencode</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Ressourcename</t>
   </si>
   <si>
-    <t xml:space="preserve">Ressource_Art </t>
-  </si>
-  <si>
     <t>Ressource_Art_Prozent</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Executing_Department</t>
   </si>
   <si>
-    <t>Executing_Company</t>
-  </si>
-  <si>
     <t>Factor 2 Type</t>
   </si>
   <si>
@@ -244,48 +238,9 @@
     <t>Hauptprojekt_ProjektstatusDesc</t>
   </si>
   <si>
-    <t>Hauptprojekt_Urauftragswert</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Urmarge</t>
-  </si>
-  <si>
     <t>Hauptprojekt_Hauptgeschaeftsfeldcode</t>
   </si>
   <si>
-    <t>Hauptprojekt_Hauptgeschaeftsfeld_DE</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Hauptgeschaeftsfeld_EN</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_HFProjekte</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Verrechnungscode</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Verrechnung_DE</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Verrechnung_EN</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_VTNL_EXT</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Projektstatus_IFRS</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Fertigstatus</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Periode_HalbfertigAb</t>
-  </si>
-  <si>
-    <t>Hauptprojekt_Periode_FertigAb</t>
-  </si>
-  <si>
     <t>Main_project_company_code</t>
   </si>
   <si>
@@ -481,27 +436,6 @@
     <t>Mainproject / Hauptproject</t>
   </si>
   <si>
-    <t>WährungCode</t>
-  </si>
-  <si>
-    <t>ISO Code</t>
-  </si>
-  <si>
-    <t>Monetary Unit 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maconomy://plwawsrpa03.group.ilf.com:8085/maconomy:Currency;title='Currency%20Setup'/PopupFields;restriction=~(PopupTypeName%20=%20'CurrencyType'),title='Currency';focusKey=(PopupTypeName=~('CurrencyType'))/PopupFields;focusKey=(PopupItemNumber=~(1))@Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">maconomy://plwawsrpa03.group.ilf.com:8085/maconomy:Currency;title='Currency%20Setup'/PopupFields;restriction=~(PopupTypeName%20=%20'CurrencyType'),title='Currency';focusKey=(PopupTypeName=~('CurrencyType'))/PopupFields;focusKey=(PopupItemNumber=~(1))@String1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">maconomy://plwawsrpa03.group.ilf.com:8085/maconomy:Currency;title='Currency%20Setup'/PopupFields;restriction=~(PopupTypeName%20=%20'CurrencyType'),title='Currency';focusKey=(PopupTypeName=~('CurrencyType'))/PopupFields;focusKey=(PopupItemNumber=~(1))@String2 </t>
-  </si>
-  <si>
-    <t>Currency / Währung</t>
-  </si>
-  <si>
     <t>Firmencode</t>
   </si>
   <si>
@@ -592,144 +526,18 @@
     <t>Buchungsperiode</t>
   </si>
   <si>
-    <t>IstBuchungsperiodeGeschlossen</t>
-  </si>
-  <si>
-    <t>BuchungsperiodeGeschlossenDatum</t>
-  </si>
-  <si>
-    <t>Bookingperiod / Buchungsperioden</t>
-  </si>
-  <si>
-    <t>Belegdatum</t>
-  </si>
-  <si>
-    <t>Buchdatum</t>
-  </si>
-  <si>
-    <t>Valutadatum</t>
-  </si>
-  <si>
-    <t>Kontonr_Orig</t>
-  </si>
-  <si>
-    <t>Kontonr</t>
-  </si>
-  <si>
     <t>UnterProjektnr</t>
   </si>
   <si>
     <t>Arbeitsauftragsnr</t>
   </si>
   <si>
-    <t>Belegnr</t>
-  </si>
-  <si>
-    <t>Waehrung</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Betrag_BW</t>
-  </si>
-  <si>
-    <t>Betrag_EUR</t>
-  </si>
-  <si>
-    <t>Betrag_HW</t>
-  </si>
-  <si>
-    <t>Betrag_USD</t>
-  </si>
-  <si>
-    <t>SollHabenKz</t>
-  </si>
-  <si>
-    <t>Betrag_BW_Soll</t>
-  </si>
-  <si>
-    <t>Betrag_BW_Haben</t>
-  </si>
-  <si>
-    <t>Betrag_HW_Soll</t>
-  </si>
-  <si>
-    <t>Betrag_HW_Haben</t>
-  </si>
-  <si>
-    <t>Betrag_EUR_Soll</t>
-  </si>
-  <si>
-    <t>Betrag_EUR_Haben</t>
-  </si>
-  <si>
-    <t>Betrag_USD_Soll</t>
-  </si>
-  <si>
-    <t>Betrag_USD_Haben</t>
-  </si>
-  <si>
-    <t>Kurs_Stichtag</t>
-  </si>
-  <si>
-    <t>Kurs_Vertragsdatum</t>
-  </si>
-  <si>
-    <t>Belegzeilennr</t>
-  </si>
-  <si>
-    <t>Lieferant_Firmencode</t>
-  </si>
-  <si>
-    <t>Lieferantennr</t>
-  </si>
-  <si>
-    <t>Lieferant_Typ</t>
-  </si>
-  <si>
-    <t>Kunde_Firmencode</t>
-  </si>
-  <si>
-    <t>Kundennr</t>
-  </si>
-  <si>
-    <t>Kunde_Typ</t>
-  </si>
-  <si>
     <t>Aktivitaetencode_Orig</t>
   </si>
   <si>
-    <t>Belegtyp</t>
-  </si>
-  <si>
-    <t>Buchungstext</t>
-  </si>
-  <si>
-    <t>Belegnr_Extern</t>
-  </si>
-  <si>
     <t>Stunden</t>
   </si>
   <si>
-    <t>Währung_Code</t>
-  </si>
-  <si>
-    <t>Execute_FirmaCode</t>
-  </si>
-  <si>
-    <t>Execute_AbteilungCode</t>
-  </si>
-  <si>
-    <t>debit</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>Bookings / Hauptbuch</t>
-  </si>
-  <si>
     <t>When (missing information) --&gt; translation of columnname in english</t>
   </si>
   <si>
@@ -904,30 +712,6 @@
     <t>BookingPeriod</t>
   </si>
   <si>
-    <t>IsBookingPeriodClosed</t>
-  </si>
-  <si>
-    <t>BookingPeriodClosedDate</t>
-  </si>
-  <si>
-    <t>ReceiptDate</t>
-  </si>
-  <si>
-    <t>BookingDate</t>
-  </si>
-  <si>
-    <t>ValueDate</t>
-  </si>
-  <si>
-    <t>AccountNr_Original</t>
-  </si>
-  <si>
-    <t>AccountNr</t>
-  </si>
-  <si>
-    <t>DepartementCode</t>
-  </si>
-  <si>
     <t>SubprojectNr</t>
   </si>
   <si>
@@ -940,84 +724,9 @@
     <t>TaskNr</t>
   </si>
   <si>
-    <t>ReceiptNr</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Amount_BW</t>
-  </si>
-  <si>
-    <t>Amount_EUR</t>
-  </si>
-  <si>
-    <t>Amount_HW</t>
-  </si>
-  <si>
-    <t>Amount_USD</t>
-  </si>
-  <si>
-    <t>DebitCreditKz</t>
-  </si>
-  <si>
-    <t>Amount_HW_debit</t>
-  </si>
-  <si>
-    <t>Amount_EUR_debit</t>
-  </si>
-  <si>
-    <t>Amount_USD_debit</t>
-  </si>
-  <si>
-    <t>Amount_HW_credit</t>
-  </si>
-  <si>
-    <t>Amount_EUR_credit</t>
-  </si>
-  <si>
-    <t>Amount_USD_credit</t>
-  </si>
-  <si>
-    <t>ExchangeRate_ContractDate</t>
-  </si>
-  <si>
-    <t>ExchangeRate_ValuationDate</t>
-  </si>
-  <si>
-    <t>RecieptRowNr</t>
-  </si>
-  <si>
-    <t>Supplier_CompanyCode</t>
-  </si>
-  <si>
-    <t>SupplierNr</t>
-  </si>
-  <si>
-    <t>Supplier_Type</t>
-  </si>
-  <si>
-    <t>Customer_CompanyCode</t>
-  </si>
-  <si>
-    <t>CustomerNr</t>
-  </si>
-  <si>
-    <t>Customer_Type</t>
-  </si>
-  <si>
     <t>ActivityCode_Original</t>
   </si>
   <si>
-    <t>Receipt_Type</t>
-  </si>
-  <si>
-    <t>PostingText (or BookingDescription)</t>
-  </si>
-  <si>
-    <t>ReceiptNr_External</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -1066,9 +775,6 @@
     <t>[PREVIOUSEMPLOYEENUMBER]</t>
   </si>
   <si>
-    <t>es gibt kein Quellsystem</t>
-  </si>
-  <si>
     <t>wird im EDWH kalkuliert</t>
   </si>
   <si>
@@ -1201,15 +907,9 @@
     <t xml:space="preserve">ProjectName </t>
   </si>
   <si>
-    <t>ProjectDescriptionVar</t>
-  </si>
-  <si>
     <t>Specification1Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Specification1DescriptionVar </t>
-  </si>
-  <si>
     <t>[JOBNAME]</t>
   </si>
   <si>
@@ -1315,9 +1015,6 @@
     <t>[SPECIFICATION1NAME]</t>
   </si>
   <si>
-    <t>[dbo].[EXTASKLISTHEADER]</t>
-  </si>
-  <si>
     <t>dbo.[EXENTITY]</t>
   </si>
   <si>
@@ -1330,16 +1027,7 @@
     <t>HauptProjekt_CountryOfExecution</t>
   </si>
   <si>
-    <t>[LOCATIONNAME] (on Subjob)</t>
-  </si>
-  <si>
-    <t>[SETTLINGCOMPANY] or [COMPANY] (on Subjob)</t>
-  </si>
-  <si>
     <t>[COUNTRY] (on main JOB)</t>
-  </si>
-  <si>
-    <t>[dbo].[EXFINANCEENTRY]</t>
   </si>
   <si>
     <t>TASKNAME</t>
@@ -1353,6 +1041,202 @@
   </si>
   <si>
     <t>POPUPITEM (Currency, Country, …)</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>ENTITYNAME</t>
+  </si>
+  <si>
+    <t>TOPJOBNUMBER</t>
+  </si>
+  <si>
+    <t>HauptProject_ExecDepartment</t>
+  </si>
+  <si>
+    <t>HauptProject_Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[COMPANY] </t>
+  </si>
+  <si>
+    <t>SPECIFICATION4NAME</t>
+  </si>
+  <si>
+    <t>[COUNTRY] (Can differ for Subjob)</t>
+  </si>
+  <si>
+    <t>NUMBERREGISTERED</t>
+  </si>
+  <si>
+    <t>Kostenlokal</t>
+  </si>
+  <si>
+    <t>KostenEnterprise</t>
+  </si>
+  <si>
+    <t>Stundensatz</t>
+  </si>
+  <si>
+    <t>[EXJOBENTRY]</t>
+  </si>
+  <si>
+    <t>Währung_Code (Projekt)</t>
+  </si>
+  <si>
+    <t>Währung_Code (Firma)</t>
+  </si>
+  <si>
+    <t>[CURRENCY] (Project)</t>
+  </si>
+  <si>
+    <t>dbo.EXCOMPANYINFORMATION</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>CURRENCY (Company is relevant for Faktor 2)</t>
+  </si>
+  <si>
+    <t>[COSTPRICE] (in company currency)</t>
+  </si>
+  <si>
+    <t>[COSTPRICEREG] (in company currency)</t>
+  </si>
+  <si>
+    <t>COSTPRICEREGENTERPRISE (always in EUR)</t>
+  </si>
+  <si>
+    <t>EXPROJECT</t>
+  </si>
+  <si>
+    <t>dbo.[EXPROJECT]</t>
+  </si>
+  <si>
+    <t>[EXSPECIFICATION1]</t>
+  </si>
+  <si>
+    <t>[dbo].[EXTASKLISTLINE]</t>
+  </si>
+  <si>
+    <t>NAME1</t>
+  </si>
+  <si>
+    <t>NAME2, NAME3, NAME4, NAME5</t>
+  </si>
+  <si>
+    <t>CSV Datei (merge)</t>
+  </si>
+  <si>
+    <t>Klärungsbedarf (Periode: Sperre -&gt; 201812 -.how far in the future/past - it affects the report, default filter) - CSV Datei?</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENTITYNAME (erste 3 Stellen)</t>
+  </si>
+  <si>
+    <t>ENTITYNAME (letzte 2 Stellen)</t>
+  </si>
+  <si>
+    <t>FinanceDate</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>FINANCEENTRYDATE</t>
+  </si>
+  <si>
+    <t>[ENTRYDATE</t>
+  </si>
+  <si>
+    <t>EXDIMCOMBVERSIONHEADER</t>
+  </si>
+  <si>
+    <t>EXDIMCOMBVERSIONLINE</t>
+  </si>
+  <si>
+    <t>EXEMPLOYEEREVISION</t>
+  </si>
+  <si>
+    <t>Lead_Department</t>
+  </si>
+  <si>
+    <t>Execute_Company</t>
+  </si>
+  <si>
+    <t>Execute_Department</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>COMPANYNUMBER</t>
+  </si>
+  <si>
+    <t>LOCATIONNAME</t>
+  </si>
+  <si>
+    <t>ACTIVITYNUMBER</t>
+  </si>
+  <si>
+    <t>JOBNUMBER</t>
+  </si>
+  <si>
+    <t>JOBNUMBER (kann drauf gebucht werden….)</t>
+  </si>
+  <si>
+    <t>Arbeitsauftraglist</t>
+  </si>
+  <si>
+    <t>TASKLIST</t>
+  </si>
+  <si>
+    <t>EXACTIVITIY</t>
+  </si>
+  <si>
+    <t>ACTIVITYTEXT</t>
+  </si>
+  <si>
+    <t>ACTIVITYTYPEPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ressource__Beschäftigungs_Art </t>
+  </si>
+  <si>
+    <t>EMPLOYEEPOPUP1PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+--0  = Operational
+--1  = Kfm_IT_Prak_Sonstige Mitarbeiter
+--2  = Subcontractor
+--3  = Generic Budget Resource</t>
+  </si>
+  <si>
+    <t>EXJOBENTRY (Stunden, Kosten)</t>
+  </si>
+  <si>
+    <t>EXSPECIFICATION1</t>
+  </si>
+  <si>
+    <t>PROJECTNAME</t>
+  </si>
+  <si>
+    <t>EXACTIVITY</t>
+  </si>
+  <si>
+    <t>SPECIFICATIONNAME1</t>
+  </si>
+  <si>
+    <t>EMPLOYEENUMBER</t>
+  </si>
+  <si>
+    <t>FROMDATE</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1479,6 +1363,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1626,79 +1518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rechteck 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D172FAB-F3A5-4569-9D0D-620B16D14BB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9563099" y="2695575"/>
-          <a:ext cx="1828801" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>[dbo].[EXTASKLISTHEADER]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>604837</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>12022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>611162</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1709,15 +1538,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10477500" y="1590674"/>
-          <a:ext cx="33337" cy="1104901"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10551435" y="1511038"/>
+          <a:ext cx="6325" cy="4617753"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1741,77 +1567,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Textfeld 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FFC1CA-1D30-4F10-830A-CCA50A13D613}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5514975" y="2085975"/>
-          <a:ext cx="895350" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>JobNumber</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1911,70 +1666,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D31E09B-9F4C-4373-A475-C89352602532}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10477500" y="3571875"/>
-          <a:ext cx="38101" cy="2714625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>168014</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>301364</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1990,8 +1689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="5000625"/>
-          <a:ext cx="895350" cy="323850"/>
+          <a:off x="10114612" y="4732051"/>
+          <a:ext cx="898473" cy="320727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,71 +2154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Gerade Verbindung mit Pfeil 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A399E4D3-EFE9-43A3-A22D-2180F6A25A0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5943601" y="7162800"/>
-          <a:ext cx="0" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>174104</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2534,8 +2177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457825" y="7867649"/>
-          <a:ext cx="1181100" cy="466725"/>
+          <a:off x="10070423" y="7396084"/>
+          <a:ext cx="1184223" cy="460479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2572,7 +2215,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>ActivityNumber</a:t>
+            <a:t>ActivityNumber = Default Activity</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2632,18 +2275,22 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[dbo].[EXFINANCEENTRY]</a:t>
+            <a:t>[dbo].[EXJOBENTRY]</a:t>
           </a:r>
+          <a:endParaRPr lang="de-DE">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3161,14 +2808,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>527616</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>49695</xdr:rowOff>
+      <xdr:colOff>593360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3191,8 +2838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4472609"/>
-          <a:ext cx="7385616" cy="2054086"/>
+          <a:off x="0" y="4610138"/>
+          <a:ext cx="7479467" cy="2037645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3397,8 +3044,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>349940</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>62120</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>39037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3413,8 +3060,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3636065" y="2252870"/>
-          <a:ext cx="1285875" cy="476250"/>
+          <a:off x="3648557" y="2218518"/>
+          <a:ext cx="1292121" cy="256421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4105,6 +3752,219 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122542</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rechteck 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE167009-2E6D-4D72-BB4B-39584C565C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1694201" y="2943381"/>
+          <a:ext cx="2253956" cy="774356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[dbo].[EXPROJECT]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122542</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Gerade Verbindung mit Pfeil 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B69C80-8F8E-4066-909C-51508868D764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="54" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3948157" y="1130585"/>
+          <a:ext cx="5738142" cy="2199974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242029</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3904</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Textfeld 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D76913-994D-4DBF-8E13-1C4C901FD0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067644" y="2927767"/>
+          <a:ext cx="1292121" cy="256421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>ProjectName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4406,11 +4266,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8907BE-0D2C-4915-B2FB-BE481DAA8218}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4420,40 +4280,40 @@
     <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4466,14 +4326,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G3" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4481,14 +4341,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4496,14 +4356,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G5" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4511,14 +4371,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4526,14 +4386,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G7" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,14 +4401,14 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G8" t="s">
-        <v>341</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4556,762 +4416,780 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G9" t="s">
-        <v>342</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>392</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>343</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7"/>
       <c r="H11" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G12" t="s">
-        <v>345</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
       <c r="E14" s="7"/>
+      <c r="F14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="H15" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="G19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" t="s">
-        <v>350</v>
-      </c>
-      <c r="G19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>350</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="M25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" t="s">
-        <v>350</v>
-      </c>
-      <c r="G25" t="s">
-        <v>397</v>
-      </c>
-      <c r="H25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C26" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>356</v>
+        <v>259</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>357</v>
+        <v>129</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>358</v>
+        <v>261</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>360</v>
+        <v>263</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>361</v>
+        <v>264</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="G33" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" t="s">
-        <v>350</v>
-      </c>
-      <c r="G34" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="E35" s="7"/>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>306</v>
+      </c>
+      <c r="H35" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>363</v>
+        <v>266</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" t="s">
-        <v>350</v>
-      </c>
-      <c r="G36" t="s">
-        <v>406</v>
-      </c>
-      <c r="H36" t="s">
-        <v>398</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>364</v>
+        <v>267</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" t="s">
-        <v>350</v>
+        <v>252</v>
+      </c>
+      <c r="G37" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>365</v>
+        <v>268</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" t="s">
-        <v>350</v>
-      </c>
-      <c r="G38" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>366</v>
+        <v>269</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
       </c>
       <c r="E39" s="7"/>
+      <c r="F39" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" t="s">
-        <v>350</v>
-      </c>
-      <c r="G40" t="s">
-        <v>416</v>
-      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>368</v>
+        <v>271</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="E41" s="7"/>
+      <c r="F41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>369</v>
+        <v>272</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" t="s">
-        <v>350</v>
-      </c>
-      <c r="G42" t="s">
-        <v>417</v>
-      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>370</v>
+        <v>273</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="E43" s="7"/>
+      <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>371</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" t="s">
-        <v>350</v>
-      </c>
-      <c r="G44" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="E45" s="7"/>
+      <c r="F45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>373</v>
+        <v>276</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="F46" t="s">
-        <v>350</v>
-      </c>
-      <c r="G46" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>374</v>
+        <v>277</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="E47" s="7"/>
+      <c r="F47" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="F48" t="s">
-        <v>350</v>
-      </c>
-      <c r="G48" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>376</v>
+        <v>279</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="E49" s="7"/>
+      <c r="F49" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" t="s">
-        <v>350</v>
-      </c>
-      <c r="G50" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>378</v>
+        <v>281</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="E51" s="7"/>
+      <c r="F51" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>379</v>
+        <v>282</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="E52" s="7"/>
-      <c r="F52" t="s">
-        <v>350</v>
-      </c>
-      <c r="G52" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>380</v>
+        <v>283</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="E53" s="7"/>
+      <c r="F53" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>381</v>
+        <v>284</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" t="s">
-        <v>350</v>
-      </c>
-      <c r="G54" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="D55" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="E55" s="7"/>
+      <c r="F55" t="s">
+        <v>252</v>
+      </c>
+      <c r="G55" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>383</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" t="s">
-        <v>350</v>
-      </c>
-      <c r="G56" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="D57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="7"/>
+      <c r="G57" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="E58" s="7"/>
-      <c r="F58" t="s">
-        <v>350</v>
-      </c>
-      <c r="G58" t="s">
-        <v>424</v>
-      </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="E59" s="7"/>
+      <c r="F59" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>387</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="E60" s="7"/>
-      <c r="F60" t="s">
-        <v>350</v>
-      </c>
-      <c r="G60" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="D61" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="E61" s="7"/>
+      <c r="F61" t="s">
+        <v>252</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>389</v>
+        <v>292</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" t="s">
-        <v>350</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>348</v>
+        <v>252</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H62" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -5319,1718 +5197,1488 @@
         <v>70</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>390</v>
+        <v>293</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" t="s">
-        <v>350</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="H63" t="s">
-        <v>426</v>
+        <v>252</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D64" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="E64" s="7"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>252</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>252</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>252</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" t="s">
-        <v>350</v>
-      </c>
-      <c r="G67" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>332</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" t="s">
+        <v>252</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="G74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="C77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>77</v>
       </c>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>78</v>
       </c>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="C80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>82</v>
       </c>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>431</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" t="s">
-        <v>350</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>432</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" t="s">
-        <v>350</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>433</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="G80" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="C86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" t="s">
+        <v>196</v>
+      </c>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>158</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>158</v>
+      </c>
+      <c r="D100" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>158</v>
+      </c>
+      <c r="D104" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" t="s">
+        <v>217</v>
+      </c>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>158</v>
+      </c>
+      <c r="D107" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" t="s">
+        <v>158</v>
+      </c>
+      <c r="D110" t="s">
+        <v>193</v>
+      </c>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>342</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" t="s">
+        <v>252</v>
+      </c>
+      <c r="G112" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>330</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" t="s">
+        <v>252</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" t="s">
+        <v>252</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>341</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>332</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="G116" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="G124" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>387</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="G125" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>132</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="G126" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>158</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" t="s">
+        <v>220</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="G128" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" t="s">
+        <v>221</v>
+      </c>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" t="s">
-        <v>86</v>
-      </c>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" t="s">
-        <v>87</v>
-      </c>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" t="s">
-        <v>127</v>
-      </c>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" t="s">
-        <v>180</v>
-      </c>
-      <c r="D91" t="s">
-        <v>258</v>
-      </c>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" t="s">
-        <v>259</v>
-      </c>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" t="s">
-        <v>129</v>
-      </c>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" t="s">
-        <v>130</v>
-      </c>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" t="s">
-        <v>180</v>
-      </c>
-      <c r="D98" t="s">
-        <v>262</v>
-      </c>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" t="s">
-        <v>180</v>
-      </c>
-      <c r="D99" t="s">
-        <v>263</v>
-      </c>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" t="s">
-        <v>180</v>
-      </c>
-      <c r="D100" t="s">
-        <v>260</v>
-      </c>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" t="s">
-        <v>180</v>
-      </c>
-      <c r="D101" t="s">
-        <v>261</v>
-      </c>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" t="s">
-        <v>180</v>
-      </c>
-      <c r="D102" t="s">
-        <v>264</v>
-      </c>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" t="s">
-        <v>180</v>
-      </c>
-      <c r="D103" t="s">
-        <v>265</v>
-      </c>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" t="s">
-        <v>266</v>
-      </c>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" t="s">
-        <v>180</v>
-      </c>
-      <c r="D105" t="s">
-        <v>267</v>
-      </c>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" t="s">
-        <v>180</v>
-      </c>
-      <c r="D106" t="s">
-        <v>268</v>
-      </c>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" t="s">
-        <v>269</v>
-      </c>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" t="s">
-        <v>270</v>
-      </c>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" t="s">
-        <v>180</v>
-      </c>
-      <c r="D109" t="s">
-        <v>271</v>
-      </c>
-      <c r="E109" s="7"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" t="s">
-        <v>180</v>
-      </c>
-      <c r="D110" t="s">
-        <v>272</v>
-      </c>
-      <c r="E110" s="7"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" t="s">
-        <v>180</v>
-      </c>
-      <c r="D111" t="s">
-        <v>273</v>
-      </c>
-      <c r="E111" s="7"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" t="s">
-        <v>180</v>
-      </c>
-      <c r="D112" t="s">
-        <v>274</v>
-      </c>
-      <c r="E112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113" t="s">
-        <v>180</v>
-      </c>
-      <c r="D113" t="s">
-        <v>275</v>
-      </c>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" t="s">
-        <v>180</v>
-      </c>
-      <c r="D114" t="s">
-        <v>276</v>
-      </c>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" t="s">
-        <v>180</v>
-      </c>
-      <c r="D115" t="s">
-        <v>277</v>
-      </c>
-      <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" t="s">
-        <v>180</v>
-      </c>
-      <c r="D116" t="s">
-        <v>278</v>
-      </c>
-      <c r="E116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117" t="s">
-        <v>180</v>
-      </c>
-      <c r="D117" t="s">
-        <v>279</v>
-      </c>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118" t="s">
-        <v>280</v>
-      </c>
-      <c r="E118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" t="s">
-        <v>180</v>
-      </c>
-      <c r="D119" t="s">
-        <v>281</v>
-      </c>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" t="s">
-        <v>180</v>
-      </c>
-      <c r="D120" t="s">
-        <v>282</v>
-      </c>
-      <c r="E120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" t="s">
-        <v>180</v>
-      </c>
-      <c r="D121" t="s">
-        <v>283</v>
-      </c>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" t="s">
-        <v>180</v>
-      </c>
-      <c r="D123" t="s">
-        <v>257</v>
-      </c>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="7"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125" t="s">
-        <v>136</v>
-      </c>
-      <c r="E125" s="7"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="7"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="7"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+      <c r="E134" s="7"/>
+      <c r="F134" s="4"/>
+      <c r="G134" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>138</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="4"/>
+      <c r="G135" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="4"/>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" t="s">
+        <v>152</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="4"/>
+      <c r="G137" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F138" s="15"/>
+      <c r="H138" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F139" s="15"/>
+      <c r="H139" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" s="7"/>
+      <c r="F140" s="4"/>
+      <c r="G140" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>144</v>
       </c>
-      <c r="E129" s="7"/>
-      <c r="F129" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="C141" t="s">
+        <v>154</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="4"/>
+      <c r="G141" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>145</v>
       </c>
-      <c r="E130" s="7"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>88</v>
-      </c>
-      <c r="C131" t="s">
-        <v>145</v>
-      </c>
-      <c r="E131" s="7"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>140</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" s="7"/>
+      <c r="F142" s="4"/>
+      <c r="G142" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>146</v>
       </c>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="4"/>
+      <c r="G143" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" t="s">
-        <v>180</v>
-      </c>
-      <c r="D134" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>142</v>
-      </c>
-      <c r="C135" t="s">
-        <v>180</v>
-      </c>
-      <c r="D135" t="s">
-        <v>284</v>
-      </c>
-      <c r="E135" s="7"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>143</v>
-      </c>
-      <c r="C136" t="s">
-        <v>180</v>
-      </c>
-      <c r="D136" t="s">
-        <v>285</v>
-      </c>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="12"/>
-    </row>
-    <row r="139" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>151</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D139" t="s">
-        <v>286</v>
-      </c>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>152</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D140" t="s">
-        <v>152</v>
-      </c>
-      <c r="E140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>153</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D141" t="s">
-        <v>153</v>
-      </c>
-      <c r="E141" s="7"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>13</v>
-      </c>
-      <c r="C142" t="s">
-        <v>180</v>
-      </c>
-      <c r="D142" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142" s="7"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="7"/>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D144" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F144" s="15"/>
+      <c r="H144" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>158</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>170</v>
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
       </c>
       <c r="E145" s="7"/>
-      <c r="F145" s="4" t="s">
-        <v>439</v>
-      </c>
+      <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>159</v>
-      </c>
-      <c r="C146" t="s">
-        <v>171</v>
-      </c>
       <c r="E146" s="7"/>
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>160</v>
-      </c>
-      <c r="C147" t="s">
-        <v>172</v>
-      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="4"/>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C148" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E148" s="7"/>
-      <c r="F148" s="4"/>
+      <c r="F148" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G148" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" t="s">
         <v>162</v>
       </c>
-      <c r="C149" t="s">
-        <v>174</v>
-      </c>
       <c r="E149" s="7"/>
-      <c r="F149" s="4"/>
+      <c r="G149" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" t="s">
         <v>163</v>
       </c>
-      <c r="C150" t="s">
-        <v>180</v>
-      </c>
-      <c r="D150" t="s">
-        <v>287</v>
-      </c>
       <c r="E150" s="7"/>
-      <c r="F150" s="4"/>
+      <c r="G150" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D151" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="E151" s="7"/>
-      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" t="s">
-        <v>175</v>
-      </c>
       <c r="E152" s="7"/>
-      <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>166</v>
-      </c>
-      <c r="C153" t="s">
-        <v>176</v>
-      </c>
       <c r="E153" s="7"/>
-      <c r="F153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>167</v>
-      </c>
-      <c r="C154" t="s">
-        <v>177</v>
-      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
       <c r="E154" s="7"/>
-      <c r="F154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="C155" t="s">
-        <v>178</v>
+        <v>158</v>
+      </c>
+      <c r="D155" t="s">
+        <v>371</v>
       </c>
       <c r="E155" s="7"/>
-      <c r="F155" s="4" t="s">
-        <v>439</v>
+      <c r="F155" t="s">
+        <v>350</v>
       </c>
       <c r="G155" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="C156" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D156" t="s">
-        <v>289</v>
+        <v>372</v>
       </c>
       <c r="E156" s="7"/>
-      <c r="F156" s="4"/>
+      <c r="F156" t="s">
+        <v>350</v>
+      </c>
+      <c r="G156" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C157" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="E157" s="7"/>
-      <c r="F157" s="4"/>
+      <c r="F157" t="s">
+        <v>350</v>
+      </c>
+      <c r="G157" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>166</v>
+      </c>
+      <c r="C158" t="s">
+        <v>158</v>
+      </c>
+      <c r="D158" t="s">
+        <v>228</v>
+      </c>
       <c r="E158" s="7"/>
-    </row>
-    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="F158" t="s">
+        <v>350</v>
+      </c>
+      <c r="G158" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>158</v>
+      </c>
+      <c r="D159" t="s">
+        <v>229</v>
+      </c>
       <c r="E159" s="7"/>
-      <c r="F159" s="1"/>
+      <c r="F159" t="s">
+        <v>350</v>
+      </c>
+      <c r="G159" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>184</v>
+        <v>158</v>
+      </c>
+      <c r="D160" t="s">
+        <v>230</v>
       </c>
       <c r="E160" s="7"/>
-      <c r="F160" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>350</v>
+      </c>
+      <c r="G160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s">
-        <v>184</v>
+        <v>158</v>
+      </c>
+      <c r="D161" t="s">
+        <v>231</v>
       </c>
       <c r="E161" s="7"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>350</v>
+      </c>
+      <c r="G161" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>185</v>
+        <v>158</v>
+      </c>
+      <c r="D162" t="s">
+        <v>227</v>
       </c>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="E163" s="7"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>350</v>
+      </c>
+      <c r="G163" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" t="s">
+        <v>158</v>
+      </c>
+      <c r="D164" t="s">
+        <v>233</v>
+      </c>
       <c r="E164" s="7"/>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="12"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>350</v>
+      </c>
+      <c r="G164" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>349</v>
+      </c>
+      <c r="E165" s="7"/>
+      <c r="F165" t="s">
+        <v>350</v>
+      </c>
+      <c r="G165" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
-        <v>180</v>
-      </c>
-      <c r="D166" t="s">
-        <v>13</v>
+        <v>347</v>
       </c>
       <c r="E166" s="7"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>350</v>
+      </c>
+      <c r="G166" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
+        <v>348</v>
+      </c>
+      <c r="E167" s="7"/>
+      <c r="F167" t="s">
+        <v>350</v>
+      </c>
+      <c r="G167" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C167" t="s">
-        <v>180</v>
-      </c>
-      <c r="D167" t="s">
-        <v>290</v>
-      </c>
-      <c r="E167" s="7"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>187</v>
-      </c>
-      <c r="C168" t="s">
-        <v>180</v>
-      </c>
-      <c r="D168" t="s">
-        <v>291</v>
-      </c>
-      <c r="E168" s="7"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>188</v>
-      </c>
-      <c r="C169" t="s">
-        <v>180</v>
+        <v>352</v>
       </c>
       <c r="D169" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="E169" s="7"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>354</v>
+      </c>
+      <c r="G169" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>189</v>
-      </c>
-      <c r="C170" t="s">
-        <v>180</v>
+        <v>379</v>
       </c>
       <c r="D170" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="E170" s="7"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>350</v>
+      </c>
+      <c r="G170" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>380</v>
+      </c>
+      <c r="D171" t="s">
+        <v>235</v>
+      </c>
       <c r="E171" s="7"/>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="F171" t="s">
+        <v>350</v>
+      </c>
+      <c r="G171" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>378</v>
+      </c>
       <c r="E172" s="7"/>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>350</v>
+      </c>
+      <c r="G172" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>191</v>
-      </c>
-      <c r="C173" t="s">
-        <v>180</v>
-      </c>
-      <c r="D173" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="E173" s="7"/>
-      <c r="F173" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>192</v>
-      </c>
-      <c r="C174" t="s">
-        <v>180</v>
-      </c>
-      <c r="D174" t="s">
-        <v>295</v>
-      </c>
+      <c r="F173" t="s">
+        <v>350</v>
+      </c>
+      <c r="G173" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D175" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>158</v>
-      </c>
-      <c r="C176" t="s">
-        <v>180</v>
-      </c>
-      <c r="D176" t="s">
-        <v>290</v>
-      </c>
-      <c r="E176" s="7"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>194</v>
-      </c>
-      <c r="C177" t="s">
-        <v>180</v>
-      </c>
-      <c r="D177" t="s">
-        <v>297</v>
-      </c>
+    <row r="177" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
       <c r="E177" s="7"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>195</v>
-      </c>
-      <c r="C178" t="s">
-        <v>180</v>
-      </c>
-      <c r="D178" t="s">
-        <v>298</v>
-      </c>
-      <c r="E178" s="7"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F178" t="s">
+        <v>314</v>
+      </c>
+      <c r="G178" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>182</v>
-      </c>
-      <c r="C179" t="s">
-        <v>180</v>
-      </c>
-      <c r="D179" t="s">
-        <v>299</v>
-      </c>
-      <c r="E179" s="7"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="G179" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>196</v>
-      </c>
-      <c r="C180" t="s">
-        <v>180</v>
-      </c>
-      <c r="D180" t="s">
-        <v>300</v>
-      </c>
-      <c r="E180" s="7"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="G180" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>27</v>
-      </c>
-      <c r="C181" t="s">
-        <v>180</v>
-      </c>
-      <c r="D181" t="s">
-        <v>301</v>
-      </c>
-      <c r="E181" s="7"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="G181" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>180</v>
-      </c>
-      <c r="D182" t="s">
-        <v>302</v>
-      </c>
-      <c r="E182" s="7"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="G182" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>197</v>
-      </c>
-      <c r="C183" t="s">
-        <v>180</v>
-      </c>
-      <c r="D183" t="s">
-        <v>303</v>
-      </c>
-      <c r="E183" s="7"/>
+        <v>315</v>
+      </c>
       <c r="G183" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>187</v>
-      </c>
-      <c r="C184" t="s">
-        <v>180</v>
-      </c>
-      <c r="D184" t="s">
-        <v>291</v>
-      </c>
-      <c r="E184" s="7"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>198</v>
-      </c>
-      <c r="C185" t="s">
-        <v>180</v>
-      </c>
-      <c r="D185" t="s">
-        <v>304</v>
-      </c>
-      <c r="E185" s="7"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>199</v>
-      </c>
-      <c r="C186" t="s">
-        <v>180</v>
-      </c>
-      <c r="D186" t="s">
-        <v>172</v>
-      </c>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
       <c r="E186" s="7"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>200</v>
-      </c>
-      <c r="C187" t="s">
-        <v>180</v>
-      </c>
-      <c r="D187" t="s">
-        <v>305</v>
-      </c>
-      <c r="E187" s="7"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>201</v>
-      </c>
-      <c r="C188" t="s">
-        <v>180</v>
-      </c>
-      <c r="D188" t="s">
-        <v>306</v>
-      </c>
-      <c r="E188" s="7"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>202</v>
-      </c>
-      <c r="C189" t="s">
-        <v>180</v>
-      </c>
-      <c r="D189" t="s">
-        <v>307</v>
-      </c>
-      <c r="E189" s="7"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>203</v>
-      </c>
-      <c r="C190" t="s">
-        <v>180</v>
-      </c>
-      <c r="D190" t="s">
-        <v>308</v>
-      </c>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>361</v>
+      </c>
+      <c r="G187" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
       <c r="E190" s="7"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>204</v>
-      </c>
-      <c r="C191" t="s">
-        <v>180</v>
-      </c>
-      <c r="D191" t="s">
-        <v>309</v>
-      </c>
-      <c r="E191" s="7"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>205</v>
-      </c>
-      <c r="C192" t="s">
-        <v>180</v>
-      </c>
-      <c r="D192" t="s">
-        <v>310</v>
-      </c>
-      <c r="E192" s="7"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>206</v>
-      </c>
-      <c r="C193" t="s">
-        <v>231</v>
-      </c>
-      <c r="E193" s="7"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>207</v>
-      </c>
-      <c r="C194" t="s">
-        <v>232</v>
-      </c>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>362</v>
+      </c>
+      <c r="G191" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
       <c r="E194" s="7"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C195" t="s">
-        <v>180</v>
-      </c>
-      <c r="D195" t="s">
-        <v>311</v>
-      </c>
-      <c r="E195" s="7"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C196" t="s">
-        <v>180</v>
-      </c>
-      <c r="D196" t="s">
-        <v>314</v>
-      </c>
-      <c r="E196" s="7"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>210</v>
-      </c>
-      <c r="C197" t="s">
-        <v>180</v>
-      </c>
-      <c r="D197" t="s">
-        <v>312</v>
-      </c>
-      <c r="E197" s="7"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>211</v>
-      </c>
-      <c r="C198" t="s">
-        <v>180</v>
-      </c>
-      <c r="D198" t="s">
-        <v>315</v>
-      </c>
-      <c r="E198" s="7"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>212</v>
-      </c>
-      <c r="C199" t="s">
-        <v>180</v>
-      </c>
-      <c r="D199" t="s">
-        <v>313</v>
-      </c>
-      <c r="E199" s="7"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>213</v>
-      </c>
-      <c r="C200" t="s">
-        <v>180</v>
-      </c>
-      <c r="D200" t="s">
-        <v>316</v>
-      </c>
-      <c r="E200" s="7"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>214</v>
-      </c>
-      <c r="C201" t="s">
-        <v>180</v>
-      </c>
-      <c r="D201" t="s">
-        <v>318</v>
-      </c>
-      <c r="E201" s="7"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>215</v>
-      </c>
-      <c r="C202" t="s">
-        <v>180</v>
-      </c>
-      <c r="D202" t="s">
-        <v>317</v>
-      </c>
-      <c r="E202" s="7"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>216</v>
-      </c>
-      <c r="C203" t="s">
-        <v>180</v>
-      </c>
-      <c r="D203" t="s">
-        <v>319</v>
-      </c>
-      <c r="E203" s="7"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>217</v>
-      </c>
-      <c r="C204" t="s">
-        <v>180</v>
-      </c>
-      <c r="D204" t="s">
-        <v>320</v>
-      </c>
-      <c r="E204" s="7"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>218</v>
-      </c>
-      <c r="C205" t="s">
-        <v>180</v>
-      </c>
-      <c r="D205" t="s">
-        <v>321</v>
-      </c>
-      <c r="E205" s="7"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>219</v>
-      </c>
-      <c r="C206" t="s">
-        <v>180</v>
-      </c>
-      <c r="D206" t="s">
-        <v>322</v>
-      </c>
-      <c r="E206" s="7"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>220</v>
-      </c>
-      <c r="C207" t="s">
-        <v>180</v>
-      </c>
-      <c r="D207" t="s">
-        <v>323</v>
-      </c>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>377</v>
+      </c>
+      <c r="G195" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
       <c r="E207" s="7"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>221</v>
-      </c>
-      <c r="C208" t="s">
-        <v>180</v>
-      </c>
-      <c r="D208" t="s">
-        <v>324</v>
-      </c>
-      <c r="E208" s="7"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>222</v>
-      </c>
-      <c r="C209" t="s">
-        <v>180</v>
-      </c>
-      <c r="D209" t="s">
-        <v>325</v>
-      </c>
-      <c r="E209" s="7"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>223</v>
-      </c>
-      <c r="C210" t="s">
-        <v>180</v>
-      </c>
-      <c r="D210" t="s">
-        <v>326</v>
-      </c>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
       <c r="E210" s="7"/>
+      <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>224</v>
-      </c>
-      <c r="C211" t="s">
-        <v>180</v>
-      </c>
-      <c r="D211" t="s">
-        <v>327</v>
-      </c>
-      <c r="E211" s="7"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>225</v>
-      </c>
-      <c r="C212" t="s">
-        <v>180</v>
-      </c>
-      <c r="D212" t="s">
-        <v>328</v>
-      </c>
-      <c r="E212" s="7"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>226</v>
-      </c>
-      <c r="C213" t="s">
-        <v>180</v>
-      </c>
-      <c r="D213" t="s">
-        <v>329</v>
-      </c>
+      <c r="F211" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
       <c r="E213" s="7"/>
+      <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>227</v>
-      </c>
-      <c r="C214" t="s">
-        <v>180</v>
-      </c>
-      <c r="D214" t="s">
-        <v>330</v>
-      </c>
-      <c r="E214" s="7"/>
+      <c r="F214" t="s">
+        <v>389</v>
+      </c>
+      <c r="G214" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>228</v>
-      </c>
-      <c r="C215" t="s">
-        <v>180</v>
-      </c>
-      <c r="D215" t="s">
-        <v>286</v>
-      </c>
-      <c r="E215" s="7"/>
+      <c r="G215" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>229</v>
-      </c>
-      <c r="C216" t="s">
-        <v>180</v>
-      </c>
-      <c r="D216" t="s">
-        <v>331</v>
-      </c>
-      <c r="E216" s="7"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>230</v>
-      </c>
-      <c r="C217" t="s">
-        <v>180</v>
-      </c>
-      <c r="D217" t="s">
-        <v>332</v>
-      </c>
-      <c r="E217" s="7"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>13</v>
-      </c>
-      <c r="C218" t="s">
-        <v>180</v>
-      </c>
-      <c r="D218" t="s">
-        <v>13</v>
-      </c>
-      <c r="E218" s="7"/>
-    </row>
-    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>409</v>
-      </c>
-      <c r="F221" t="s">
-        <v>414</v>
-      </c>
-      <c r="G221" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>408</v>
-      </c>
-      <c r="G222" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>410</v>
-      </c>
-      <c r="G223" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>411</v>
-      </c>
-      <c r="G224" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>412</v>
-      </c>
-      <c r="G225" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>415</v>
-      </c>
-      <c r="G226" t="s">
-        <v>415</v>
+      <c r="G216" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -7043,8 +6691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB98F-A9EC-4081-954F-D808E65AB9CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="D33" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schnittstellen Beschreibung/Views from DELTEK.xlsx
+++ b/Schnittstellen Beschreibung/Views from DELTEK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305CE359-7B25-4CCA-A35A-EB4DC75B725A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F4FB96-6519-48EF-83B8-E62F45035E83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="416">
   <si>
     <t>Ressource_Firmencode</t>
   </si>
@@ -1237,6 +1237,48 @@
   </si>
   <si>
     <t>FROMDATE</t>
+  </si>
+  <si>
+    <t>TODATE</t>
+  </si>
+  <si>
+    <t>DIMCOMBVERSIONNUMBER</t>
+  </si>
+  <si>
+    <t>USEDINRELATIONSHIP</t>
+  </si>
+  <si>
+    <t>KEY1</t>
+  </si>
+  <si>
+    <t>USEDINRELATIONSHIPPN</t>
+  </si>
+  <si>
+    <t>[ACCOUNTNUMBER]</t>
+  </si>
+  <si>
+    <t>[PURPOSENAME]</t>
+  </si>
+  <si>
+    <t>[SPECIFICATION2NAME]</t>
+  </si>
+  <si>
+    <t>[LOCALSPEC1NAME]</t>
+  </si>
+  <si>
+    <t>[LOCALSPEC2NAME]</t>
+  </si>
+  <si>
+    <t>[LOCALSPEC3NAME]</t>
+  </si>
+  <si>
+    <t>TRANSACTIONTIMESTAMP</t>
+  </si>
+  <si>
+    <t>CREATEDDATE</t>
+  </si>
+  <si>
+    <t>CHANGEDDATE</t>
   </si>
 </sst>
 </file>
@@ -4266,11 +4308,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8907BE-0D2C-4915-B2FB-BE481DAA8218}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,17 +6350,16 @@
         <v>334</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+    <row r="162" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E162" s="7"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
@@ -6392,20 +6433,21 @@
         <v>359</v>
       </c>
     </row>
-    <row r="168" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
+    <row r="168" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="E168" s="7"/>
+      <c r="F168" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="G168" s="9" t="s">
+      <c r="G168" s="14" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6600,47 +6642,92 @@
         <v>368</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F195" t="s">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
         <v>377</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G196" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G196" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F208" t="s">
-        <v>375</v>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6650,34 +6737,155 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="1"/>
+        <v>375</v>
+      </c>
+      <c r="G211" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F214" t="s">
-        <v>389</v>
-      </c>
       <c r="G214" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G215" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G216" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F219" t="s">
+        <v>376</v>
+      </c>
+      <c r="G219" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F237" t="s">
+        <v>389</v>
+      </c>
+      <c r="G237" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
         <v>391</v>
       </c>
     </row>

--- a/Schnittstellen Beschreibung/Views from DELTEK.xlsx
+++ b/Schnittstellen Beschreibung/Views from DELTEK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F4FB96-6519-48EF-83B8-E62F45035E83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6227E6C2-D712-429A-AB00-CF3228FEB031}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="418">
   <si>
     <t>Ressource_Firmencode</t>
   </si>
@@ -1279,6 +1279,30 @@
   </si>
   <si>
     <t>CHANGEDDATE</t>
+  </si>
+  <si>
+    <t>Is Business Key</t>
+  </si>
+  <si>
+    <t>select  ROW_NUMBER() over (partition by table_catalog order by is_nullable asc, Ordinal_Position),
+COLUMN_NAME,IS_NULLABLE, DATA_TYPE,CHARACTER_MAXIMUM_LENGTH, NUMERIC_PRECISION, CASE WHEN COLUMN_NAME = 'EMPLOYEENUMBER' then 1 else 0 END AS IsBusinessKey
+from information_Schema.columns
+where table_name = 'EXEMPLOYEE' and column_name in
+(
+'EMPLOYEENUMBER'
+,'FROMDATE'
+,'TODATE'
+,'COMPANYNUMBER'
+,'DATEEMPLOYED'
+,'DATEENDEMPLOYMENT] unterschied zu [DATEENDEMPLOYMENTDS'
+,'PRIMARYEMPLOYEECATEGORYNUMBE'
+,'ENTITYNAME'
+,'LASTNAME]'
+, '[FIRSTNAME]'
+,'SELECTEDOPTION1'
+,'PREVIOUSEMPLOYEENUMBER'
+,'ENTITYNAME'
+)</t>
   </si>
 </sst>
 </file>
@@ -4308,11 +4332,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8907BE-0D2C-4915-B2FB-BE481DAA8218}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:N239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,10 +4348,11 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="61.85546875" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>238</v>
       </c>
@@ -4350,10 +4375,13 @@
         <v>237</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4362,8 +4390,11 @@
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4378,7 +4409,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -4392,8 +4423,11 @@
       <c r="G4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -4408,7 +4442,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -4423,7 +4457,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -4438,7 +4472,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -4453,7 +4487,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -4468,7 +4502,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>392</v>
       </c>
@@ -4483,7 +4517,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -4491,11 +4525,11 @@
         <v>20</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -4510,7 +4544,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>338</v>
       </c>
@@ -4528,7 +4562,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
@@ -4545,11 +4579,11 @@
       <c r="G14" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="I14" s="17" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -4561,10 +4595,10 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -4574,7 +4608,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -4589,7 +4623,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -4601,7 +4635,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -4615,8 +4649,11 @@
       <c r="G20" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -4631,7 +4668,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -4645,8 +4682,9 @@
       <c r="G22" s="9" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -4660,8 +4698,9 @@
       <c r="G23" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -4675,11 +4714,11 @@
       <c r="G24" t="s">
         <v>297</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -4687,11 +4726,11 @@
         <v>257</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -4706,7 +4745,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -4721,7 +4760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -4736,7 +4775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -4751,7 +4790,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -4766,7 +4805,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>37</v>
       </c>
@@ -4781,7 +4820,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -4796,7 +4835,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -4811,13 +4850,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>41</v>
       </c>
@@ -4831,11 +4870,11 @@
       <c r="G35" t="s">
         <v>306</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>42</v>
       </c>
@@ -4847,7 +4886,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
@@ -4862,7 +4901,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>44</v>
       </c>
@@ -4871,7 +4910,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>45</v>
       </c>
@@ -4889,7 +4928,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>46</v>
       </c>
@@ -4901,7 +4940,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>47</v>
       </c>
@@ -4919,7 +4958,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -4931,7 +4970,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -4949,7 +4988,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>50</v>
       </c>
@@ -4961,7 +5000,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>51</v>
       </c>
@@ -4979,7 +5018,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -4991,7 +5030,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>53</v>
       </c>
@@ -5009,7 +5048,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>54</v>
       </c>
@@ -5021,7 +5060,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>55</v>
       </c>
@@ -5039,7 +5078,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>56</v>
       </c>
@@ -5051,7 +5090,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>57</v>
       </c>
@@ -5069,7 +5108,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>58</v>
       </c>
@@ -5081,7 +5120,7 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>59</v>
       </c>
@@ -5099,7 +5138,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>60</v>
       </c>
@@ -5111,7 +5150,7 @@
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>61</v>
       </c>
@@ -5129,7 +5168,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>62</v>
       </c>
@@ -5141,7 +5180,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>63</v>
       </c>
@@ -5159,7 +5198,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>64</v>
       </c>
@@ -5171,7 +5210,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>65</v>
       </c>
@@ -5189,7 +5228,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>66</v>
       </c>
@@ -5201,7 +5240,7 @@
       </c>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>67</v>
       </c>
@@ -5216,7 +5255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>68</v>
       </c>
@@ -5230,11 +5269,12 @@
       <c r="G62" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="14"/>
+      <c r="I62" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>70</v>
       </c>
@@ -5248,8 +5288,9 @@
       <c r="G63" s="14" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>342</v>
       </c>
@@ -5260,8 +5301,9 @@
       <c r="G64" s="14" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>330</v>
       </c>
@@ -5272,8 +5314,9 @@
       <c r="G65" s="14" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>331</v>
       </c>
@@ -5284,8 +5327,9 @@
       <c r="G66" s="14" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>341</v>
       </c>
@@ -5296,8 +5340,9 @@
       <c r="G67" s="14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>332</v>
       </c>
@@ -5308,8 +5353,9 @@
       <c r="G68" s="14" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
@@ -5317,11 +5363,12 @@
         <v>11</v>
       </c>
       <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>134</v>
       </c>
@@ -5331,7 +5378,7 @@
       <c r="E71" s="13"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>24</v>
       </c>
@@ -5340,7 +5387,7 @@
       </c>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>25</v>
       </c>
@@ -5349,7 +5396,7 @@
       </c>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>73</v>
       </c>
@@ -5361,7 +5408,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>74</v>
       </c>
@@ -5370,7 +5417,7 @@
       </c>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>75</v>
       </c>
@@ -5379,7 +5426,7 @@
       </c>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>76</v>
       </c>
@@ -5388,7 +5435,7 @@
       </c>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>77</v>
       </c>
@@ -5400,7 +5447,7 @@
       </c>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>78</v>
       </c>
@@ -5412,7 +5459,7 @@
       </c>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>79</v>
       </c>
@@ -5787,7 +5834,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>330</v>
       </c>
@@ -5799,7 +5846,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>331</v>
       </c>
@@ -5810,15 +5857,17 @@
       <c r="G114" s="14" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="14"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>341</v>
       </c>
       <c r="E115" s="7"/>
       <c r="G115" s="14"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="14"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>332</v>
       </c>
@@ -5826,8 +5875,9 @@
       <c r="G116" s="14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>110</v>
       </c>
@@ -5835,17 +5885,18 @@
         <v>121</v>
       </c>
       <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>133</v>
       </c>
@@ -5855,7 +5906,7 @@
       <c r="E120" s="7"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>123</v>
       </c>
@@ -5867,7 +5918,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>124</v>
       </c>
@@ -5876,7 +5927,7 @@
       </c>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>73</v>
       </c>
@@ -5885,7 +5936,7 @@
       </c>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>125</v>
       </c>
@@ -5896,8 +5947,11 @@
       <c r="G124" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>387</v>
       </c>
@@ -5905,8 +5959,11 @@
       <c r="G125" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>126</v>
       </c>
@@ -5918,7 +5975,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>11</v>
       </c>
@@ -5930,7 +5987,7 @@
       </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>127</v>
       </c>
@@ -5945,7 +6002,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>128</v>
       </c>
@@ -5957,13 +6014,13 @@
       </c>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>157</v>
       </c>
@@ -5973,7 +6030,7 @@
       <c r="E132" s="7"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -5988,7 +6045,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -6000,8 +6057,9 @@
       <c r="G134" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -6014,7 +6072,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -6027,7 +6085,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -6040,7 +6098,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
@@ -6051,11 +6109,11 @@
         <v>223</v>
       </c>
       <c r="F138" s="15"/>
-      <c r="H138" s="9" t="s">
+      <c r="I138" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
@@ -6066,11 +6124,11 @@
         <v>224</v>
       </c>
       <c r="F139" s="15"/>
-      <c r="H139" s="9" t="s">
+      <c r="I139" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -6082,8 +6140,9 @@
       <c r="G140" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="9"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -6096,7 +6155,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -6109,7 +6168,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -6122,7 +6181,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
@@ -6130,11 +6189,12 @@
         <v>225</v>
       </c>
       <c r="F144" s="15"/>
-      <c r="H144" s="9" t="s">
+      <c r="H144"/>
+      <c r="I144" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>11</v>
       </c>
@@ -6143,11 +6203,12 @@
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="9"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>164</v>
       </c>
@@ -6157,7 +6218,7 @@
       <c r="E147" s="7"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>159</v>
       </c>
@@ -6172,7 +6233,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>160</v>
       </c>
@@ -6184,7 +6245,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>161</v>
       </c>
@@ -6196,7 +6257,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>11</v>
       </c>
@@ -6208,13 +6269,13 @@
       </c>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>395</v>
       </c>
@@ -6224,7 +6285,7 @@
       <c r="E154" s="7"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>371</v>
       </c>
@@ -6242,7 +6303,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>372</v>
       </c>
@@ -6260,7 +6321,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>136</v>
       </c>
@@ -6278,7 +6339,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>166</v>
       </c>
@@ -6296,7 +6357,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>25</v>
       </c>
@@ -6314,7 +6375,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>1</v>
       </c>
@@ -6332,7 +6393,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>167</v>
       </c>
@@ -6350,7 +6411,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="162" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
@@ -6360,8 +6421,9 @@
       <c r="D162" s="9" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H162"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>168</v>
       </c>
@@ -6379,7 +6441,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>169</v>
       </c>
@@ -6397,7 +6459,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>349</v>
       </c>
@@ -6409,7 +6471,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>347</v>
       </c>
@@ -6421,7 +6483,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>348</v>
       </c>
@@ -6433,7 +6495,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="168" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="14" t="s">
         <v>351</v>
       </c>
@@ -6450,8 +6512,9 @@
       <c r="G168" s="14" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H168"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>352</v>
       </c>
@@ -6465,8 +6528,9 @@
       <c r="G169" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="14"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>379</v>
       </c>
@@ -6481,7 +6545,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>380</v>
       </c>
@@ -6496,7 +6560,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>378</v>
       </c>
@@ -6508,7 +6572,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>381</v>
       </c>
@@ -6520,10 +6584,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>11</v>
       </c>

--- a/Schnittstellen Beschreibung/Views from DELTEK.xlsx
+++ b/Schnittstellen Beschreibung/Views from DELTEK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6227E6C2-D712-429A-AB00-CF3228FEB031}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C998129F-3F3A-476D-8AA2-EFC126B6E403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="417">
   <si>
     <t>Ressource_Firmencode</t>
   </si>
@@ -526,9 +526,6 @@
     <t>Buchungsperiode</t>
   </si>
   <si>
-    <t>UnterProjektnr</t>
-  </si>
-  <si>
     <t>Arbeitsauftragsnr</t>
   </si>
   <si>
@@ -710,9 +707,6 @@
   </si>
   <si>
     <t>BookingPeriod</t>
-  </si>
-  <si>
-    <t>SubprojectNr</t>
   </si>
   <si>
     <t>MainprojectNr</t>
@@ -1182,9 +1176,6 @@
   </si>
   <si>
     <t>ACTIVITYNUMBER</t>
-  </si>
-  <si>
-    <t>JOBNUMBER</t>
   </si>
   <si>
     <t>JOBNUMBER (kann drauf gebucht werden….)</t>
@@ -1303,6 +1294,12 @@
 ,'PREVIOUSEMPLOYEENUMBER'
 ,'ENTITYNAME'
 )</t>
+  </si>
+  <si>
+    <t>Eintragsnummer</t>
+  </si>
+  <si>
+    <t>Entrynumber</t>
   </si>
 </sst>
 </file>
@@ -4334,9 +4331,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H220" sqref="H219:H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4351,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
@@ -4363,22 +4360,22 @@
         <v>23</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -4391,7 +4388,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="1"/>
       <c r="I2" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4403,10 +4400,10 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4418,10 +4415,10 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4436,10 +4433,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4451,10 +4448,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4466,10 +4463,10 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4481,10 +4478,10 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4496,25 +4493,25 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4526,7 +4523,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4538,15 +4535,15 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>158</v>
@@ -4556,10 +4553,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -4574,13 +4571,13 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4617,10 +4614,10 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -4632,7 +4629,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="G19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -4640,14 +4637,14 @@
         <v>26</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -4658,14 +4655,14 @@
         <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -4673,14 +4670,14 @@
         <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -4689,14 +4686,14 @@
         <v>29</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H23" s="14"/>
     </row>
@@ -4705,17 +4702,17 @@
         <v>30</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4723,11 +4720,11 @@
         <v>31</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E25" s="7"/>
       <c r="N25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4735,14 +4732,14 @@
         <v>32</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4750,14 +4747,14 @@
         <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4769,10 +4766,10 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4780,14 +4777,14 @@
         <v>35</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -4795,14 +4792,14 @@
         <v>36</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4810,14 +4807,14 @@
         <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -4825,14 +4822,14 @@
         <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -4840,14 +4837,14 @@
         <v>39</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -4861,17 +4858,17 @@
         <v>41</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -4879,11 +4876,11 @@
         <v>42</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -4891,14 +4888,14 @@
         <v>43</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -4906,7 +4903,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -4915,17 +4912,17 @@
         <v>45</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -4933,10 +4930,10 @@
         <v>46</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -4945,17 +4942,17 @@
         <v>47</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -4963,10 +4960,10 @@
         <v>48</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" s="7"/>
     </row>
@@ -4975,17 +4972,17 @@
         <v>49</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -4993,10 +4990,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E44" s="7"/>
     </row>
@@ -5005,17 +5002,17 @@
         <v>51</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -5023,10 +5020,10 @@
         <v>52</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E46" s="7"/>
     </row>
@@ -5035,17 +5032,17 @@
         <v>53</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -5053,10 +5050,10 @@
         <v>54</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -5065,17 +5062,17 @@
         <v>55</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -5083,10 +5080,10 @@
         <v>56</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E50" s="7"/>
     </row>
@@ -5095,17 +5092,17 @@
         <v>57</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -5113,10 +5110,10 @@
         <v>58</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -5125,17 +5122,17 @@
         <v>59</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -5143,10 +5140,10 @@
         <v>60</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E54" s="7"/>
     </row>
@@ -5155,17 +5152,17 @@
         <v>61</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -5173,10 +5170,10 @@
         <v>62</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E56" s="7"/>
     </row>
@@ -5185,17 +5182,17 @@
         <v>63</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -5203,10 +5200,10 @@
         <v>64</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="7"/>
     </row>
@@ -5215,17 +5212,17 @@
         <v>65</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -5233,10 +5230,10 @@
         <v>66</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E60" s="7"/>
     </row>
@@ -5245,14 +5242,14 @@
         <v>67</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -5260,18 +5257,18 @@
         <v>68</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -5279,79 +5276,79 @@
         <v>70</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H68" s="14"/>
     </row>
@@ -5405,7 +5402,7 @@
       </c>
       <c r="E74" s="7"/>
       <c r="G74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5443,7 +5440,7 @@
         <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78" s="7"/>
     </row>
@@ -5455,7 +5452,7 @@
         <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E79" s="7"/>
     </row>
@@ -5512,7 +5509,7 @@
         <v>158</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E85" s="7"/>
     </row>
@@ -5524,7 +5521,7 @@
         <v>158</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E86" s="7"/>
     </row>
@@ -5536,7 +5533,7 @@
         <v>158</v>
       </c>
       <c r="D87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E87" s="7"/>
     </row>
@@ -5548,7 +5545,7 @@
         <v>158</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E88" s="7"/>
     </row>
@@ -5560,7 +5557,7 @@
         <v>158</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E89" s="7"/>
     </row>
@@ -5572,7 +5569,7 @@
         <v>158</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" s="7"/>
     </row>
@@ -5584,7 +5581,7 @@
         <v>158</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E91" s="7"/>
     </row>
@@ -5596,7 +5593,7 @@
         <v>158</v>
       </c>
       <c r="D92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E92" s="7"/>
     </row>
@@ -5608,7 +5605,7 @@
         <v>158</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E93" s="7"/>
     </row>
@@ -5620,7 +5617,7 @@
         <v>158</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E94" s="7"/>
     </row>
@@ -5632,7 +5629,7 @@
         <v>158</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E95" s="7"/>
     </row>
@@ -5644,7 +5641,7 @@
         <v>158</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E96" s="7"/>
     </row>
@@ -5656,7 +5653,7 @@
         <v>158</v>
       </c>
       <c r="D97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E97" s="7"/>
     </row>
@@ -5668,7 +5665,7 @@
         <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E98" s="7"/>
     </row>
@@ -5680,7 +5677,7 @@
         <v>158</v>
       </c>
       <c r="D99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E99" s="7"/>
     </row>
@@ -5692,7 +5689,7 @@
         <v>158</v>
       </c>
       <c r="D100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E100" s="7"/>
     </row>
@@ -5704,7 +5701,7 @@
         <v>158</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E101" s="7"/>
     </row>
@@ -5716,7 +5713,7 @@
         <v>158</v>
       </c>
       <c r="D102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E102" s="7"/>
     </row>
@@ -5728,7 +5725,7 @@
         <v>158</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E103" s="7"/>
     </row>
@@ -5740,7 +5737,7 @@
         <v>158</v>
       </c>
       <c r="D104" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E104" s="7"/>
     </row>
@@ -5752,7 +5749,7 @@
         <v>158</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E105" s="7"/>
     </row>
@@ -5764,7 +5761,7 @@
         <v>158</v>
       </c>
       <c r="D106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E106" s="7"/>
     </row>
@@ -5776,7 +5773,7 @@
         <v>158</v>
       </c>
       <c r="D107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E107" s="7"/>
     </row>
@@ -5788,7 +5785,7 @@
         <v>158</v>
       </c>
       <c r="D108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E108" s="7"/>
     </row>
@@ -5809,7 +5806,7 @@
         <v>158</v>
       </c>
       <c r="D110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E110" s="7"/>
     </row>
@@ -5824,44 +5821,44 @@
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G112" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E115" s="7"/>
       <c r="G115" s="14"/>
@@ -5869,11 +5866,11 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E116" s="7"/>
       <c r="G116" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H116" s="14"/>
     </row>
@@ -5915,7 +5912,7 @@
       </c>
       <c r="E121" s="7"/>
       <c r="F121" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5945,7 +5942,7 @@
       </c>
       <c r="E124" s="7"/>
       <c r="G124" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -5953,11 +5950,11 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E125" s="7"/>
       <c r="G125" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5972,7 +5969,7 @@
       </c>
       <c r="E126" s="7"/>
       <c r="G126" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5995,11 +5992,11 @@
         <v>158</v>
       </c>
       <c r="D128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E128" s="7"/>
       <c r="G128" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -6010,7 +6007,7 @@
         <v>158</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E129" s="7"/>
     </row>
@@ -6039,10 +6036,13 @@
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6055,7 +6055,7 @@
       <c r="E134" s="7"/>
       <c r="F134" s="4"/>
       <c r="G134" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H134" s="2"/>
     </row>
@@ -6069,7 +6069,7 @@
       <c r="E135" s="7"/>
       <c r="F135" s="4"/>
       <c r="G135" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6106,11 +6106,11 @@
         <v>158</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F138" s="15"/>
       <c r="I138" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6121,11 +6121,11 @@
         <v>158</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F139" s="15"/>
       <c r="I139" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6140,7 +6140,6 @@
       <c r="G140" t="s">
         <v>153</v>
       </c>
-      <c r="H140" s="9"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
@@ -6165,7 +6164,7 @@
       <c r="E142" s="7"/>
       <c r="F142" s="4"/>
       <c r="G142" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6178,7 +6177,7 @@
       <c r="E143" s="7"/>
       <c r="F143" s="4"/>
       <c r="G143" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6186,12 +6185,11 @@
         <v>147</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F144" s="15"/>
-      <c r="H144"/>
       <c r="I144" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -6203,7 +6201,6 @@
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="4"/>
-      <c r="H145" s="9"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E146" s="7"/>
@@ -6227,10 +6224,10 @@
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G148" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -6242,7 +6239,7 @@
       </c>
       <c r="E149" s="7"/>
       <c r="G149" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -6254,7 +6251,7 @@
       </c>
       <c r="E150" s="7"/>
       <c r="G150" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -6277,7 +6274,7 @@
     </row>
     <row r="154" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6287,301 +6284,270 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>371</v>
-      </c>
-      <c r="C155" t="s">
-        <v>158</v>
+        <v>369</v>
       </c>
       <c r="D155" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G155" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>372</v>
-      </c>
-      <c r="C156" t="s">
-        <v>158</v>
+        <v>370</v>
       </c>
       <c r="D156" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G156" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>136</v>
       </c>
-      <c r="C157" t="s">
-        <v>158</v>
-      </c>
       <c r="D157" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G157" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>166</v>
-      </c>
-      <c r="C158" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G158" t="s">
-        <v>385</v>
+        <v>383</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>25</v>
-      </c>
-      <c r="C159" t="s">
-        <v>158</v>
+        <v>415</v>
       </c>
       <c r="D159" t="s">
-        <v>229</v>
+        <v>416</v>
       </c>
       <c r="E159" s="7"/>
-      <c r="F159" t="s">
-        <v>350</v>
-      </c>
       <c r="G159" t="s">
-        <v>386</v>
+        <v>416</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>1</v>
       </c>
-      <c r="C160" t="s">
-        <v>158</v>
-      </c>
       <c r="D160" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G160" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>167</v>
-      </c>
-      <c r="C161" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D161" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G161" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C162" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="D162" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H162"/>
+        <v>226</v>
+      </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>168</v>
-      </c>
-      <c r="C163" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D163" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G163" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>169</v>
-      </c>
-      <c r="C164" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D164" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G164" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G165" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G166" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G167" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H168"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" t="s">
+        <v>352</v>
+      </c>
+      <c r="G169" t="s">
         <v>354</v>
-      </c>
-      <c r="G169" t="s">
-        <v>356</v>
       </c>
       <c r="H169" s="14"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D170" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G170" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D171" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G172" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G173" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
@@ -6591,17 +6557,14 @@
       <c r="B175" t="s">
         <v>11</v>
       </c>
-      <c r="C175" t="s">
-        <v>158</v>
-      </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
       <c r="E175" s="7"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6609,60 +6572,66 @@
       <c r="E177" s="7"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
+        <v>307</v>
+      </c>
+      <c r="F178" t="s">
+        <v>312</v>
+      </c>
+      <c r="G178" t="s">
+        <v>307</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>306</v>
+      </c>
+      <c r="G179" t="s">
+        <v>306</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>308</v>
+      </c>
+      <c r="G180" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>309</v>
       </c>
-      <c r="F178" t="s">
-        <v>314</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="G181" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>308</v>
-      </c>
-      <c r="G179" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>310</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G182" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>311</v>
-      </c>
-      <c r="G181" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>312</v>
-      </c>
-      <c r="G182" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G183" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6670,22 +6639,25 @@
       <c r="E186" s="7"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G187" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G188" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6693,32 +6665,35 @@
       <c r="E190" s="7"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G191" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G192" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G193" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6726,72 +6701,78 @@
       <c r="E195" s="7"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G196" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G197" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G198" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G199" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G200" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G201" t="s">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G202" t="s">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G203" t="s">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G204" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G205" t="s">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G206" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G207" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6799,42 +6780,45 @@
       <c r="E210" s="7"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G211" t="s">
+        <v>400</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G212" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G213" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G215" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G216" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6842,92 +6826,98 @@
       <c r="E218" s="7"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F219" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G219" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G220" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G221" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G222" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G223" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G224" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G225" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G226" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G227" t="s">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G228" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G229" t="s">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G230" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G231" t="s">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G232" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G233" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G234" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6935,22 +6925,25 @@
       <c r="E236" s="7"/>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F237" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G237" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G238" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G239" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/Schnittstellen Beschreibung/Views from DELTEK.xlsx
+++ b/Schnittstellen Beschreibung/Views from DELTEK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Schnittstellen Beschreibung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C998129F-3F3A-476D-8AA2-EFC126B6E403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67454889-A01E-4F30-948A-3E11F841831B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B1C8240-F260-46F3-8DA1-CB42D6A8C6D3}"/>
   </bookViews>
@@ -4028,6 +4028,219 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>405984</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>364571</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rechteck 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221D57CC-D09B-4255-A6FC-F1B67263418D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3466476" y="3763155"/>
+          <a:ext cx="2253956" cy="774356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[dbo].[EXPROJECT]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2716</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Gerade Verbindung mit Pfeil 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17BD50F-C0F3-4985-852E-FA0AF078259E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4593454" y="1130585"/>
+          <a:ext cx="5092845" cy="2632570"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335718</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355236</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Textfeld 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778DA3FE-AB16-4C9E-BCB9-FBD86DE9BBFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4161333" y="3427439"/>
+          <a:ext cx="1549764" cy="256421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>SPECIFICATIONNAME1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4332,8 +4545,8 @@
   <dimension ref="A1:N239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H220" sqref="H219:H220"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6956,8 +7169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB98F-A9EC-4081-954F-D808E65AB9CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D33" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="D13" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
